--- a/SCRUM_apoio.xlsx
+++ b/SCRUM_apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dados\01-Votorantim\01-VPAR\00-Novas Tecnologias\2022\99-TEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D1D0A7-AF83-451F-8884-0A608BEB45D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7685FA1-2908-4ED1-8C11-69A6F2336E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="144">
   <si>
     <t>Gráfico BurnDown - Exemplo</t>
   </si>
@@ -986,9 +986,6 @@
     <t>Engine de agrupar cupons</t>
   </si>
   <si>
-    <t>1,1,2,3,5,8,13,21,34</t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
@@ -999,6 +996,48 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequencia de Fibonacci: </t>
+  </si>
+  <si>
+    <t>1, 1, 2, 3, 5, 8, 13, 21, 34, 55</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Estimativa - draft!!!</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Funcionalidade</t>
+  </si>
+  <si>
+    <t>Pontos (Fibonacci)</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>Cadastro Básico</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - gestor matches</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - conversor cupons x vouchers</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - gestor bonificações por utilização</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1157,6 +1196,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2528,229 +2573,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834B3C7B-1F38-45D0-876C-FF09C5DFDC94}">
-  <dimension ref="A3:D29"/>
+  <dimension ref="B3:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="43.36328125" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" customWidth="1"/>
+    <col min="4" max="4" width="45.90625" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>34</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>34</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>34</v>
-      </c>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
+      <c r="D17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2826,10 +2936,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9C0383-BC9C-4317-9C9B-7E5989B0533C}">
-  <dimension ref="A2:L32"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2838,8 +2948,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C2" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -2881,7 +2994,7 @@
         <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>34</v>
@@ -2898,7 +3011,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>35</v>
@@ -2915,7 +3028,7 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>36</v>
@@ -2964,7 +3077,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>39</v>
@@ -2981,7 +3094,7 @@
         <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>40</v>
@@ -3021,7 +3134,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>27</v>
@@ -3038,7 +3151,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>28</v>
@@ -3055,7 +3168,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>29</v>
@@ -3072,7 +3185,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>69</v>
@@ -3219,6 +3332,9 @@
       <c r="L32" s="14" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3229,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C92B289-1327-43A2-9FC5-B021202794DA}">
-  <dimension ref="A3:O31"/>
+  <dimension ref="A3:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3241,18 +3357,18 @@
     <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="str">
         <f>nome_projeto</f>
         <v>Nome do Projeto: Sistema de gestão de cupons e voucher</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3260,7 +3376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3268,7 +3384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3282,17 +3398,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G9">
-        <f>SUM(G11:G31)</f>
-        <v>415</v>
-      </c>
       <c r="L9" s="16" t="s">
         <v>117</v>
       </c>
@@ -3306,237 +3418,121 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>1</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D18" t="s">
         <v>97</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E18" t="s">
         <v>105</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" t="s">
         <v>122</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J18" t="s">
         <v>108</v>
       </c>
-      <c r="L10">
+      <c r="L18">
         <v>40</v>
       </c>
-      <c r="M10">
+      <c r="M18">
         <v>40</v>
       </c>
-      <c r="N10">
+      <c r="N18">
         <v>40</v>
       </c>
-      <c r="O10">
+      <c r="O18">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <f>E11</f>
-        <v>8</v>
-      </c>
-      <c r="J11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11">
-        <v>40</v>
-      </c>
-      <c r="M11">
-        <v>40</v>
-      </c>
-      <c r="N11">
-        <v>40</v>
-      </c>
-      <c r="O11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ref="G12:G15" si="0">E12</f>
-        <v>8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12">
-        <v>40</v>
-      </c>
-      <c r="M12">
-        <v>40</v>
-      </c>
-      <c r="N12">
-        <v>40</v>
-      </c>
-      <c r="O12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J13" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13">
-        <v>40</v>
-      </c>
-      <c r="M13">
-        <v>40</v>
-      </c>
-      <c r="N13">
-        <v>40</v>
-      </c>
-      <c r="O13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14">
-        <v>40</v>
-      </c>
-      <c r="M14">
-        <v>40</v>
-      </c>
-      <c r="N14">
-        <v>40</v>
-      </c>
-      <c r="O14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16">
-        <v>24</v>
-      </c>
-      <c r="H16">
-        <v>24</v>
-      </c>
-      <c r="L16">
-        <f>SUM(L10:L14)</f>
-        <v>200</v>
-      </c>
-      <c r="M16">
-        <f>L16</f>
-        <v>200</v>
-      </c>
-      <c r="N16">
-        <f>SUM(N10:N14)</f>
-        <v>200</v>
-      </c>
-      <c r="O16">
-        <f>N16</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17">
-        <v>24</v>
-      </c>
-      <c r="H17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18">
-        <v>24</v>
-      </c>
-      <c r="H18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>98</v>
@@ -3548,131 +3544,337 @@
         <f>E19</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19">
+        <v>40</v>
+      </c>
+      <c r="M19">
+        <v>40</v>
+      </c>
+      <c r="N19">
+        <v>40</v>
+      </c>
+      <c r="O19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G23" si="0">E20</f>
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20">
+        <v>40</v>
+      </c>
+      <c r="M20">
+        <v>40</v>
+      </c>
+      <c r="N20">
+        <v>40</v>
+      </c>
+      <c r="O20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <v>40</v>
+      </c>
+      <c r="O21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>40</v>
+      </c>
+      <c r="O22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>24</v>
+      </c>
+      <c r="L24">
+        <f>SUM(L18:L22)</f>
+        <v>200</v>
+      </c>
+      <c r="M24">
+        <f>L24</f>
+        <v>200</v>
+      </c>
+      <c r="N24">
+        <f>SUM(N18:N22)</f>
+        <v>200</v>
+      </c>
+      <c r="O24">
+        <f>N24</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <f>E27</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D28" t="s">
         <v>104</v>
       </c>
-      <c r="E20">
-        <f>SUM(E11:E19)*30%</f>
+      <c r="E28">
+        <f>SUM(E19:E27)*30%</f>
         <v>36</v>
       </c>
-      <c r="G20">
-        <f>E20</f>
+      <c r="G28">
+        <f>E28</f>
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
-      <c r="E21">
-        <f>SUM(E11:E20)</f>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
+      <c r="E29">
+        <f>SUM(E19:E28)</f>
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>2</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="5" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D32" t="s">
         <v>116</v>
       </c>
-      <c r="E24">
+      <c r="E32">
         <v>72</v>
       </c>
-      <c r="G24">
+      <c r="G32">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="5" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D33" t="s">
         <v>116</v>
       </c>
-      <c r="E25">
+      <c r="E33">
         <v>72</v>
       </c>
-      <c r="G25">
+      <c r="G33">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E26">
-        <f>SUM(E24:E25)*30%</f>
+      <c r="E34">
+        <f>SUM(E32:E33)*30%</f>
         <v>43.199999999999996</v>
       </c>
-      <c r="G26">
+      <c r="G34">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E27">
-        <f>SUM(E24:E26)</f>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <f>SUM(E32:E34)</f>
         <v>187.2</v>
       </c>
-      <c r="F27">
-        <f>E27+E21</f>
+      <c r="F35">
+        <f>E35+E29</f>
         <v>343.2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>3</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D37" t="s">
         <v>116</v>
       </c>
-      <c r="E29">
+      <c r="E37">
         <v>72</v>
       </c>
-      <c r="G29">
+      <c r="G37">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="5" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D38" t="s">
         <v>116</v>
       </c>
-      <c r="E30">
+      <c r="E38">
         <v>72</v>
       </c>
-      <c r="G30">
+      <c r="G38">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E31">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E39">
         <v>187</v>
       </c>
-      <c r="F31">
-        <f>F27+E31</f>
+      <c r="F39">
+        <f>F35+E39</f>
         <v>530.20000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C41" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41">
+        <f>SUM(G19:G39)</f>
+        <v>415</v>
+      </c>
+      <c r="H41">
+        <f>SUM(H19:H39)</f>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/SCRUM_apoio.xlsx
+++ b/SCRUM_apoio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dados\01-Votorantim\01-VPAR\00-Novas Tecnologias\2022\99-TEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7685FA1-2908-4ED1-8C11-69A6F2336E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD096AE8-E4C3-425A-8E57-2A4541ACB062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="186">
   <si>
     <t>Gráfico BurnDown - Exemplo</t>
   </si>
@@ -489,6 +489,21 @@
   </si>
   <si>
     <r>
+      <t>Feature 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Módulo de suporte</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>·</t>
     </r>
     <r>
@@ -508,12 +523,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Usuários</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
+      <t>Suporte plataforma</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -522,7 +537,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -532,12 +547,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Parceiros</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
+      <t>configurações da aplicação: integrações, definições de ambiente, etc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -546,7 +561,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -556,7 +571,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Cupons e Vouchers</t>
+      <t>indicadores de utilização</t>
     </r>
   </si>
   <si>
@@ -580,12 +595,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Relatórios e indicadores</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
+      <t>Suporte usuários</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -594,7 +609,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -604,27 +619,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Notificações, alertas e mensagens</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Feature 05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Módulo de suporte</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
+      <t>Guia de utilização</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -633,7 +633,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -643,7 +643,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Suporte plataforma</t>
+      <t>Chat suporte (bot de atendimento)</t>
     </r>
   </si>
   <si>
@@ -667,12 +667,306 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>configurações da aplicação: integrações, definições de ambiente, etc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
+      <t>Fale conosco</t>
+    </r>
+  </si>
+  <si>
+    <t>Interface usuário - Cadastro básico</t>
+  </si>
+  <si>
+    <t>Interface usuário - Troca de senha</t>
+  </si>
+  <si>
+    <t>Interface usuário - cadastro avançado</t>
+  </si>
+  <si>
+    <t>Interface usuário - notificações</t>
+  </si>
+  <si>
+    <t>Interface usuário - Cadastro básico rede social</t>
+  </si>
+  <si>
+    <t>Interface parceiros - dados parceiros</t>
+  </si>
+  <si>
+    <t>Interface parceiros - regras negócio - combinações</t>
+  </si>
+  <si>
+    <t>Interface parceiros - regras negócio - billing</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Gestão coupons - gerador</t>
+  </si>
+  <si>
+    <t>Administração - parceiros</t>
+  </si>
+  <si>
+    <t>Administração - usuários</t>
+  </si>
+  <si>
+    <t>Administração - cupons e vouchers</t>
+  </si>
+  <si>
+    <t>Administração - relatórios</t>
+  </si>
+  <si>
+    <t>Administração - indicadores</t>
+  </si>
+  <si>
+    <t>Administração - notificações</t>
+  </si>
+  <si>
+    <t>Suporte - configurações</t>
+  </si>
+  <si>
+    <t>Suporte - indicadores utilização</t>
+  </si>
+  <si>
+    <t>Suporte usuários - guia</t>
+  </si>
+  <si>
+    <t>Suporte usuários - bot atendimento</t>
+  </si>
+  <si>
+    <t>Suporte usuários - fale conosco</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>User Story Points - Exemplo</t>
+  </si>
+  <si>
+    <t>Esforço</t>
+  </si>
+  <si>
+    <t>baixo</t>
+  </si>
+  <si>
+    <t>Verificação usuário existe</t>
+  </si>
+  <si>
+    <t>Se existir, mostrar tela de "Esqueceu senha?"</t>
+  </si>
+  <si>
+    <t>Se não existir, mostrar tela de opções de cadastro</t>
+  </si>
+  <si>
+    <t>Opções de cadastro: email, telefone ou cpf</t>
+  </si>
+  <si>
+    <t>Opções de cadastro: rede social - Google, Facebook ou MS</t>
+  </si>
+  <si>
+    <t>médio</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Tela cadastro básico (user, email, senha)</t>
+  </si>
+  <si>
+    <t>Testes e validação</t>
+  </si>
+  <si>
+    <t>Developer 1</t>
+  </si>
+  <si>
+    <t>Developer 2</t>
+  </si>
+  <si>
+    <t>Developer 3</t>
+  </si>
+  <si>
+    <t>Developer 4</t>
+  </si>
+  <si>
+    <t>Developer 5</t>
+  </si>
+  <si>
+    <t>Cadastro avançado</t>
+  </si>
+  <si>
+    <t>Tela com informações adicionais</t>
+  </si>
+  <si>
+    <t>Cadastro das preferencias de cupons</t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t>1 sem</t>
+  </si>
+  <si>
+    <t>2 sem</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>3 sem</t>
+  </si>
+  <si>
+    <t>4 sem</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Gestão cupons</t>
+  </si>
+  <si>
+    <t>Tela com cupons por preferencia</t>
+  </si>
+  <si>
+    <t>Engine de agrupar cupons</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequencia de Fibonacci: </t>
+  </si>
+  <si>
+    <t>1, 1, 2, 3, 5, 8, 13, 21, 34, 55</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Estimativa - draft!!!</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Funcionalidade</t>
+  </si>
+  <si>
+    <t>Pontos (Fibonacci)</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>Cadastro Básico</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - gestor matches</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - conversor cupons x vouchers</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - gestor bonificações por utilização</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <r>
+      <t>Feature 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Gestão Vouchers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Funcionalidade Persona 01</t>
+    </r>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - conversor vouchers</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - gestor bonificações</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
     </r>
     <r>
       <rPr>
@@ -681,7 +975,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">   </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -691,12 +985,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>indicadores de utilização</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
+      <t>Interface “Melhor Idade”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -705,7 +999,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -715,12 +1009,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Suporte usuários</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
+      <t>UX diferenciada com foco em pessoas com dificuldades – visão, navegação, entendimento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Funcionalidade Persona 02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
     </r>
     <r>
       <rPr>
@@ -729,7 +1038,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">   </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -739,7 +1048,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Guia de utilização</t>
+      <t>Interface “Minha Galera!”</t>
     </r>
   </si>
   <si>
@@ -763,7 +1072,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Chat suporte (bot de atendimento)</t>
+      <t>Opções de iteração com outros usuários com as mesmas preferências</t>
     </r>
   </si>
   <si>
@@ -787,257 +1096,522 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Fale conosco</t>
-    </r>
-  </si>
-  <si>
-    <t>Interface usuário - Cadastro básico</t>
-  </si>
-  <si>
-    <t>Interface usuário - Troca de senha</t>
-  </si>
-  <si>
-    <t>Interface usuário - cadastro avançado</t>
-  </si>
-  <si>
-    <t>Interface usuário - notificações</t>
-  </si>
-  <si>
-    <t>Interface usuário - Cadastro básico rede social</t>
-  </si>
-  <si>
-    <t>Interface parceiros - dados parceiros</t>
-  </si>
-  <si>
-    <t>Interface parceiros - regras negócio - combinações</t>
-  </si>
-  <si>
-    <t>Interface parceiros - regras negócio - billing</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Gestão coupons - conversor vouchers</t>
-  </si>
-  <si>
-    <t>Gestão coupons - gerador</t>
-  </si>
-  <si>
-    <t>Gestão coupons - gestor matches</t>
-  </si>
-  <si>
-    <t>Gestão coupons - gestor bonificações</t>
-  </si>
-  <si>
-    <t>Administração - parceiros</t>
-  </si>
-  <si>
-    <t>Administração - usuários</t>
-  </si>
-  <si>
-    <t>Administração - cupons e vouchers</t>
-  </si>
-  <si>
-    <t>Administração - relatórios</t>
-  </si>
-  <si>
-    <t>Administração - indicadores</t>
-  </si>
-  <si>
-    <t>Administração - notificações</t>
-  </si>
-  <si>
-    <t>Suporte - configurações</t>
-  </si>
-  <si>
-    <t>Suporte - indicadores utilização</t>
-  </si>
-  <si>
-    <t>Suporte usuários - guia</t>
-  </si>
-  <si>
-    <t>Suporte usuários - bot atendimento</t>
-  </si>
-  <si>
-    <t>Suporte usuários - fale conosco</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>User Story Points - Exemplo</t>
-  </si>
-  <si>
-    <t>Esforço</t>
-  </si>
-  <si>
-    <t>baixo</t>
-  </si>
-  <si>
-    <t>Verificação usuário existe</t>
-  </si>
-  <si>
-    <t>Se existir, mostrar tela de "Esqueceu senha?"</t>
-  </si>
-  <si>
-    <t>Se não existir, mostrar tela de opções de cadastro</t>
-  </si>
-  <si>
-    <t>Opções de cadastro: email, telefone ou cpf</t>
-  </si>
-  <si>
-    <t>Opções de cadastro: rede social - Google, Facebook ou MS</t>
-  </si>
-  <si>
-    <t>médio</t>
-  </si>
-  <si>
-    <t>Horas</t>
-  </si>
-  <si>
-    <t>Tela cadastro básico (user, email, senha)</t>
-  </si>
-  <si>
-    <t>Testes e validação</t>
-  </si>
-  <si>
-    <t>Developer 1</t>
-  </si>
-  <si>
-    <t>Developer 2</t>
-  </si>
-  <si>
-    <t>Developer 3</t>
-  </si>
-  <si>
-    <t>Developer 4</t>
-  </si>
-  <si>
-    <t>Developer 5</t>
-  </si>
-  <si>
-    <t>Cadastro avançado</t>
-  </si>
-  <si>
-    <t>Tela com informações adicionais</t>
-  </si>
-  <si>
-    <t>Cadastro das preferencias de cupons</t>
-  </si>
-  <si>
-    <t>alto</t>
-  </si>
-  <si>
-    <t>1 sem</t>
-  </si>
-  <si>
-    <t>2 sem</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>3 sem</t>
-  </si>
-  <si>
-    <t>4 sem</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Gestão cupons</t>
-  </si>
-  <si>
-    <t>Tela com cupons por preferencia</t>
-  </si>
-  <si>
-    <t>Engine de agrupar cupons</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequencia de Fibonacci: </t>
-  </si>
-  <si>
-    <t>1, 1, 2, 3, 5, 8, 13, 21, 34, 55</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Estimativa - draft!!!</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>Funcionalidade</t>
-  </si>
-  <si>
-    <t>Pontos (Fibonacci)</t>
-  </si>
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>Cadastro Básico</t>
-  </si>
-  <si>
-    <t>Gestão vouchers - gestor matches</t>
-  </si>
-  <si>
-    <t>Gestão vouchers - conversor cupons x vouchers</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Gestão vouchers - gestor bonificações por utilização</t>
-  </si>
-  <si>
-    <t>?</t>
+      <t>Integração com redes sociais</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Funcionalidade Persona 03</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interface “YYYYYYYYY”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XXXXXXX</t>
+    </r>
+  </si>
+  <si>
+    <t>Func. Persona 01 - Melhor Idade</t>
+  </si>
+  <si>
+    <t>Func. Persona 02 - Minha galera 01</t>
+  </si>
+  <si>
+    <t>Func. Persona 02 - Minha galera 02 - Redes Sociais</t>
+  </si>
+  <si>
+    <t>Func. Persona 03 - Interface XXXXX</t>
+  </si>
+  <si>
+    <t>Story # 6</t>
+  </si>
+  <si>
+    <t>Gostaria de que o app tivesse as letras maiores, com informações mais fáceis de ler - é complicado com letras pequenas. E os botões também precisam ser maiores e de fácil acesso. E tenho medo de fazer algo errado, gostaria de confirmar o que estou fazendo.</t>
+  </si>
+  <si>
+    <t>Pessoas de mais idade e até mesmo com algum problema de visão tem dificuldade em operar aplicações que não tem recursos de aumento dos fontes, ou mesmo uma interface mais direcionada para eles. Existe também a preocupação de não saber ao certo o que  está fazendo, por isso alguns usuários tem receio em confirmar uma operação via aplicação.</t>
+  </si>
+  <si>
+    <t>No processo de login a solução irá avaliar a idade do usuário, caso seja alguém com mais de 60 anos irá apresentar uma opção para utilização de uma interface diferenciada (fontes e botões maiores, e outros recursos necessários). Esta mesma opção poderá ser disponibilizada para outros usuários através do menu de configuração da aplicação. Esta interface poderá ser desenvolvidia com folhas de estilo diferenciadas.</t>
+  </si>
+  <si>
+    <t>Feature 01 - Interface de Usuário</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eu como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ILoveVouchers, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necessito de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uma interface de cadastro intuitiva e amigável</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> novos usuários consigam se cadastrar facilmente em nossa plataforma/app.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feature 02 - Interface Parceiros</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eu como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ILoveVouchers, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necessito de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uma interface com os dados dos parceiros </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>para que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seja possível definir regras de negócios como billing ou integração de nossos serviços com lojas parceiras.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feature 03 - Gestão de Cupons</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eu como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ILoveVouchers, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necessito de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> um sistema de destão de cupons </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>para que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sejam criadas funções para auxiliar nossos usuários no gerenciamento de seus cupons e vouchers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feature 04 - Módulos de Administração</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eu como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ILoveVouchers, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necessito de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uma interface de controle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>para que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> os administradores do sitem possam visualizar detalhes sobre os usuários e parceiros além de gerar relatórios e notificar ou alertar diretamente nossos usuários.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feature 05 - Módulo de Suporte</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eu como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ILoveVouchers, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necessito de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uma função </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>para que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nossos usuários tenham opções para contatar nosso suporte por meio de um chat ou bot de atendimento.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Interface usuários - TICKET</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EU COMO :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ILOVEVOUCHERS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NECESSITO DE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INTERFACE DE CADASTRO, TENDO: EMAIL, SENHA E USERNAME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PARA QUE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OS CLIENTES POSSAM FAZER O CADASTRO INICIAL NO APP.</t>
+    </r>
+  </si>
+  <si>
+    <t>EU COMO: ILOVEVOUCHERS</t>
+  </si>
+  <si>
+    <t>NECESSITO DE: INTERFACE DE DADOS DOS PARCEIROS, TENDO: CNPJ, RAZÃO SOCIAL, ETC.</t>
+  </si>
+  <si>
+    <t>PARA: ~~</t>
+  </si>
+  <si>
+    <t>NECESSITO DE: GERADOR DE CUPONS E GERENCIADOR DE MATCHES</t>
+  </si>
+  <si>
+    <t>PARA: GERAR OS MELHORES CUPONS VÁLIDOS DA REGIÃO E DA PREFERÊNCIA DO USUÁRIO</t>
+  </si>
+  <si>
+    <t>NECESSITO DE: MÓDULO DE INTERFACE DE ADMINISTRAÇÃO</t>
+  </si>
+  <si>
+    <t>PARA: GERENCIAR E ADMINISTRAR USUÁRIOS, PARCEIROS, CUPONS, ETC</t>
+  </si>
+  <si>
+    <t>NECESSITO DE: INTERFACE E INTEGRAÇÕES DE SUPORTE</t>
+  </si>
+  <si>
+    <t>PARA: MELHORAR E DAR SUPORTE À EXPERIÊNCIA DO USUÁRIO</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,8 +1715,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1150,11 +1736,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,6 +1803,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2575,7 +3186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834B3C7B-1F38-45D0-876C-FF09C5DFDC94}">
   <dimension ref="B3:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2598,7 +3209,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -2618,7 +3229,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
@@ -2629,7 +3240,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
@@ -2640,7 +3251,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
@@ -2651,7 +3262,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
@@ -2662,7 +3273,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
@@ -2673,7 +3284,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
@@ -2684,7 +3295,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
@@ -2695,7 +3306,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
@@ -2706,7 +3317,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
@@ -2717,7 +3328,7 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
@@ -2728,7 +3339,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
@@ -2736,10 +3347,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
@@ -2747,10 +3358,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
@@ -2758,10 +3369,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
@@ -2769,10 +3380,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
@@ -2780,10 +3391,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
@@ -2791,76 +3402,76 @@
         <v>5</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2872,10 +3483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2884,51 +3495,457 @@
     <col min="3" max="3" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" t="str">
         <f>nome_projeto</f>
         <v>Nome do Projeto: Sistema de gestão de cupons e voucher</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="5"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="69.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="E26:L28"/>
+    <mergeCell ref="E29:L31"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="B17:D19"/>
+    <mergeCell ref="E15:L16"/>
+    <mergeCell ref="E17:L19"/>
+    <mergeCell ref="B20:D22"/>
+    <mergeCell ref="E20:L22"/>
+    <mergeCell ref="B23:D25"/>
+    <mergeCell ref="E23:L25"/>
+    <mergeCell ref="B26:D28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -2936,10 +3953,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9C0383-BC9C-4317-9C9B-7E5989B0533C}">
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2949,10 +3966,10 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C2" s="19" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -2982,359 +3999,444 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
         <v>97</v>
       </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
       <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>21</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>38</v>
+      <c r="L10" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <f>SUM(D7:D11)</f>
-        <v>68</v>
+      <c r="A11" t="s">
+        <v>136</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
       <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>40</v>
+        <v>119</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>21</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <f>SUM(D12:D14)</f>
-        <v>76</v>
+      <c r="A14" t="s">
+        <v>137</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>34</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>42</v>
+      <c r="L14" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D15">
         <v>21</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D16">
         <v>34</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>44</v>
+      <c r="L16" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D17">
         <v>21</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="9" t="s">
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="L21" s="11" t="s">
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="9" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="9"/>
+      <c r="L28" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="9"/>
+      <c r="C29" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="9" t="s">
+      <c r="L30" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="9" t="s">
+      <c r="L31" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L30" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L31" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L32" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L33" s="10"/>
+      <c r="L32" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L35" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L36" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L37" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L38" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L39" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L40" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L41" s="14" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3359,7 +4461,7 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
@@ -3392,10 +4494,10 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="72.5" x14ac:dyDescent="0.35">
@@ -3406,16 +4508,16 @@
         <v>13</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
@@ -3428,13 +4530,13 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -3443,10 +4545,10 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -3479,7 +4581,7 @@
     </row>
     <row r="16" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="20" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C16" s="8"/>
       <c r="L16" s="16"/>
@@ -3503,19 +4605,19 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
         <v>97</v>
       </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L18">
         <v>40</v>
@@ -3532,10 +4634,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -3545,7 +4647,7 @@
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="L19">
         <v>40</v>
@@ -3562,10 +4664,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -3575,7 +4677,7 @@
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L20">
         <v>40</v>
@@ -3592,10 +4694,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -3605,7 +4707,7 @@
         <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L21">
         <v>40</v>
@@ -3622,10 +4724,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -3635,7 +4737,7 @@
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L22">
         <v>40</v>
@@ -3652,10 +4754,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -3667,10 +4769,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <v>24</v>
@@ -3700,7 +4802,7 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -3714,7 +4816,7 @@
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E26">
         <v>24</v>
@@ -3728,7 +4830,7 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -3740,10 +4842,10 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E28">
         <f>SUM(E19:E27)*30%</f>
@@ -3766,15 +4868,15 @@
         <v>2</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E32">
         <v>72</v>
@@ -3785,10 +4887,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E33">
         <v>72</v>
@@ -3799,7 +4901,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E34">
         <f>SUM(E32:E33)*30%</f>
@@ -3824,15 +4926,15 @@
         <v>3</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E37">
         <v>72</v>
@@ -3843,10 +4945,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E38">
         <v>72</v>
@@ -3866,7 +4968,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C41" s="19" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G41">
         <f>SUM(G19:G39)</f>

--- a/SCRUM_apoio.xlsx
+++ b/SCRUM_apoio.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dados\01-Votorantim\01-VPAR\00-Novas Tecnologias\2022\99-TEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD096AE8-E4C3-425A-8E57-2A4541ACB062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4903CB-5F53-4C81-8197-5E23047AC2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
-    <sheet name="UserStories" sheetId="1" r:id="rId2"/>
+    <sheet name="UserStories" sheetId="1" r:id="rId1"/>
+    <sheet name="Product Backlog" sheetId="4" r:id="rId2"/>
     <sheet name="Sprint Planning" sheetId="5" r:id="rId3"/>
     <sheet name="UserStoryPoints" sheetId="3" r:id="rId4"/>
     <sheet name="BurnDown" sheetId="2" r:id="rId5"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="250">
   <si>
     <t>Gráfico BurnDown - Exemplo</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Sprint</t>
-  </si>
-  <si>
-    <t>Product Backlog - User Stories</t>
   </si>
   <si>
     <t>01</t>
@@ -397,7 +394,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Gerador de cupons disponíveis (parceiro, região, valor, validade)</t>
+      <t>Conversor de vouchers (agrupamento de cupons)</t>
     </r>
   </si>
   <si>
@@ -421,7 +418,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Conversor de vouchers (agrupamento de cupons)</t>
+      <t>Gerenciador de “Matches” – Voucher x preferências usuários</t>
     </r>
   </si>
   <si>
@@ -445,7 +442,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Gerenciador de “Matches” – Voucher x preferências usuários</t>
+      <t>Gerenciador de bonificação por utilização</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Módulo de suporte</t>
     </r>
   </si>
   <si>
@@ -469,42 +481,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Gerenciador de bonificação por utilização</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Feature 04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Módulos de administração</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Feature 05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Módulo de suporte</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
+      <t>Suporte plataforma</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -513,7 +495,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -523,7 +505,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Suporte plataforma</t>
+      <t>configurações da aplicação: integrações, definições de ambiente, etc</t>
     </r>
   </si>
   <si>
@@ -547,12 +529,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>configurações da aplicação: integrações, definições de ambiente, etc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
+      <t>indicadores de utilização</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
     </r>
     <r>
       <rPr>
@@ -561,7 +543,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">   </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -571,12 +553,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>indicadores de utilização</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
+      <t>Suporte usuários</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -585,7 +567,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -595,7 +577,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Suporte usuários</t>
+      <t>Guia de utilização</t>
     </r>
   </si>
   <si>
@@ -619,7 +601,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Guia de utilização</t>
+      <t>Chat suporte (bot de atendimento)</t>
     </r>
   </si>
   <si>
@@ -643,12 +625,300 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Chat suporte (bot de atendimento)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
+      <t>Fale conosco</t>
+    </r>
+  </si>
+  <si>
+    <t>Interface usuário - Cadastro básico</t>
+  </si>
+  <si>
+    <t>Interface usuário - Troca de senha</t>
+  </si>
+  <si>
+    <t>Interface usuário - cadastro avançado</t>
+  </si>
+  <si>
+    <t>Interface usuário - notificações</t>
+  </si>
+  <si>
+    <t>Interface usuário - Cadastro básico rede social</t>
+  </si>
+  <si>
+    <t>Interface parceiros - dados parceiros</t>
+  </si>
+  <si>
+    <t>Interface parceiros - regras negócio - combinações</t>
+  </si>
+  <si>
+    <t>Interface parceiros - regras negócio - billing</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Gestão coupons - gerador</t>
+  </si>
+  <si>
+    <t>Administração - parceiros</t>
+  </si>
+  <si>
+    <t>Administração - usuários</t>
+  </si>
+  <si>
+    <t>Administração - cupons e vouchers</t>
+  </si>
+  <si>
+    <t>Administração - relatórios</t>
+  </si>
+  <si>
+    <t>Administração - indicadores</t>
+  </si>
+  <si>
+    <t>Administração - notificações</t>
+  </si>
+  <si>
+    <t>Suporte - configurações</t>
+  </si>
+  <si>
+    <t>Suporte - indicadores utilização</t>
+  </si>
+  <si>
+    <t>Suporte usuários - guia</t>
+  </si>
+  <si>
+    <t>Suporte usuários - bot atendimento</t>
+  </si>
+  <si>
+    <t>Suporte usuários - fale conosco</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>User Story Points - Exemplo</t>
+  </si>
+  <si>
+    <t>Esforço</t>
+  </si>
+  <si>
+    <t>baixo</t>
+  </si>
+  <si>
+    <t>Verificação usuário existe</t>
+  </si>
+  <si>
+    <t>Se existir, mostrar tela de "Esqueceu senha?"</t>
+  </si>
+  <si>
+    <t>Se não existir, mostrar tela de opções de cadastro</t>
+  </si>
+  <si>
+    <t>Opções de cadastro: email, telefone ou cpf</t>
+  </si>
+  <si>
+    <t>Opções de cadastro: rede social - Google, Facebook ou MS</t>
+  </si>
+  <si>
+    <t>médio</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Tela cadastro básico (user, email, senha)</t>
+  </si>
+  <si>
+    <t>Testes e validação</t>
+  </si>
+  <si>
+    <t>Developer 1</t>
+  </si>
+  <si>
+    <t>Developer 2</t>
+  </si>
+  <si>
+    <t>Developer 3</t>
+  </si>
+  <si>
+    <t>Developer 4</t>
+  </si>
+  <si>
+    <t>Developer 5</t>
+  </si>
+  <si>
+    <t>Cadastro avançado</t>
+  </si>
+  <si>
+    <t>Tela com informações adicionais</t>
+  </si>
+  <si>
+    <t>Cadastro das preferencias de cupons</t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t>1 sem</t>
+  </si>
+  <si>
+    <t>2 sem</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>3 sem</t>
+  </si>
+  <si>
+    <t>4 sem</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Gestão cupons</t>
+  </si>
+  <si>
+    <t>Tela com cupons por preferencia</t>
+  </si>
+  <si>
+    <t>Engine de agrupar cupons</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequencia de Fibonacci: </t>
+  </si>
+  <si>
+    <t>1, 1, 2, 3, 5, 8, 13, 21, 34, 55</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Estimativa - draft!!!</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Funcionalidade</t>
+  </si>
+  <si>
+    <t>Pontos (Fibonacci)</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>Cadastro Básico</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - gestor matches</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - conversor cupons x vouchers</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - gestor bonificações por utilização</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <r>
+      <t>Feature 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Gestão Vouchers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Funcionalidade Persona 01</t>
+    </r>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - conversor vouchers</t>
+  </si>
+  <si>
+    <t>Gestão vouchers - gestor bonificações</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
     </r>
     <r>
       <rPr>
@@ -657,7 +927,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">   </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -667,306 +937,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Fale conosco</t>
-    </r>
-  </si>
-  <si>
-    <t>Interface usuário - Cadastro básico</t>
-  </si>
-  <si>
-    <t>Interface usuário - Troca de senha</t>
-  </si>
-  <si>
-    <t>Interface usuário - cadastro avançado</t>
-  </si>
-  <si>
-    <t>Interface usuário - notificações</t>
-  </si>
-  <si>
-    <t>Interface usuário - Cadastro básico rede social</t>
-  </si>
-  <si>
-    <t>Interface parceiros - dados parceiros</t>
-  </si>
-  <si>
-    <t>Interface parceiros - regras negócio - combinações</t>
-  </si>
-  <si>
-    <t>Interface parceiros - regras negócio - billing</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Gestão coupons - gerador</t>
-  </si>
-  <si>
-    <t>Administração - parceiros</t>
-  </si>
-  <si>
-    <t>Administração - usuários</t>
-  </si>
-  <si>
-    <t>Administração - cupons e vouchers</t>
-  </si>
-  <si>
-    <t>Administração - relatórios</t>
-  </si>
-  <si>
-    <t>Administração - indicadores</t>
-  </si>
-  <si>
-    <t>Administração - notificações</t>
-  </si>
-  <si>
-    <t>Suporte - configurações</t>
-  </si>
-  <si>
-    <t>Suporte - indicadores utilização</t>
-  </si>
-  <si>
-    <t>Suporte usuários - guia</t>
-  </si>
-  <si>
-    <t>Suporte usuários - bot atendimento</t>
-  </si>
-  <si>
-    <t>Suporte usuários - fale conosco</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>User Story Points - Exemplo</t>
-  </si>
-  <si>
-    <t>Esforço</t>
-  </si>
-  <si>
-    <t>baixo</t>
-  </si>
-  <si>
-    <t>Verificação usuário existe</t>
-  </si>
-  <si>
-    <t>Se existir, mostrar tela de "Esqueceu senha?"</t>
-  </si>
-  <si>
-    <t>Se não existir, mostrar tela de opções de cadastro</t>
-  </si>
-  <si>
-    <t>Opções de cadastro: email, telefone ou cpf</t>
-  </si>
-  <si>
-    <t>Opções de cadastro: rede social - Google, Facebook ou MS</t>
-  </si>
-  <si>
-    <t>médio</t>
-  </si>
-  <si>
-    <t>Horas</t>
-  </si>
-  <si>
-    <t>Tela cadastro básico (user, email, senha)</t>
-  </si>
-  <si>
-    <t>Testes e validação</t>
-  </si>
-  <si>
-    <t>Developer 1</t>
-  </si>
-  <si>
-    <t>Developer 2</t>
-  </si>
-  <si>
-    <t>Developer 3</t>
-  </si>
-  <si>
-    <t>Developer 4</t>
-  </si>
-  <si>
-    <t>Developer 5</t>
-  </si>
-  <si>
-    <t>Cadastro avançado</t>
-  </si>
-  <si>
-    <t>Tela com informações adicionais</t>
-  </si>
-  <si>
-    <t>Cadastro das preferencias de cupons</t>
-  </si>
-  <si>
-    <t>alto</t>
-  </si>
-  <si>
-    <t>1 sem</t>
-  </si>
-  <si>
-    <t>2 sem</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>3 sem</t>
-  </si>
-  <si>
-    <t>4 sem</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Gestão cupons</t>
-  </si>
-  <si>
-    <t>Tela com cupons por preferencia</t>
-  </si>
-  <si>
-    <t>Engine de agrupar cupons</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequencia de Fibonacci: </t>
-  </si>
-  <si>
-    <t>1, 1, 2, 3, 5, 8, 13, 21, 34, 55</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Estimativa - draft!!!</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>Funcionalidade</t>
-  </si>
-  <si>
-    <t>Pontos (Fibonacci)</t>
-  </si>
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>Cadastro Básico</t>
-  </si>
-  <si>
-    <t>Gestão vouchers - gestor matches</t>
-  </si>
-  <si>
-    <t>Gestão vouchers - conversor cupons x vouchers</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Gestão vouchers - gestor bonificações por utilização</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <r>
-      <t>Feature 04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Gestão Vouchers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Feature 06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Funcionalidade Persona 01</t>
-    </r>
-  </si>
-  <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>F02</t>
-  </si>
-  <si>
-    <t>F03</t>
-  </si>
-  <si>
-    <t>F04</t>
-  </si>
-  <si>
-    <t>F05</t>
-  </si>
-  <si>
-    <t>F06</t>
-  </si>
-  <si>
-    <t>F07</t>
-  </si>
-  <si>
-    <t>F08</t>
-  </si>
-  <si>
-    <t>Gestão vouchers - conversor vouchers</t>
-  </si>
-  <si>
-    <t>Gestão vouchers - gestor bonificações</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
+      <t>Interface “Melhor Idade”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -975,7 +951,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -985,12 +961,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Interface “Melhor Idade”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
+      <t>UX diferenciada com foco em pessoas com dificuldades – visão, navegação, entendimento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
     </r>
     <r>
       <rPr>
@@ -999,7 +975,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">   </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -1009,27 +985,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>UX diferenciada com foco em pessoas com dificuldades – visão, navegação, entendimento</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Feature 07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Funcionalidade Persona 02</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
+      <t>Interface “Minha Galera!”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -1038,7 +999,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -1048,7 +1009,383 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Interface “Minha Galera!”</t>
+      <t>Integração com redes sociais</t>
+    </r>
+  </si>
+  <si>
+    <t>Func. Persona 01 - Melhor Idade</t>
+  </si>
+  <si>
+    <t>Func. Persona 02 - Minha galera 01</t>
+  </si>
+  <si>
+    <t>Func. Persona 02 - Minha galera 02 - Redes Sociais</t>
+  </si>
+  <si>
+    <t>Story # 6</t>
+  </si>
+  <si>
+    <t>Gostaria de que o app tivesse as letras maiores, com informações mais fáceis de ler - é complicado com letras pequenas. E os botões também precisam ser maiores e de fácil acesso. E tenho medo de fazer algo errado, gostaria de confirmar o que estou fazendo.</t>
+  </si>
+  <si>
+    <t>Pessoas de mais idade e até mesmo com algum problema de visão tem dificuldade em operar aplicações que não tem recursos de aumento dos fontes, ou mesmo uma interface mais direcionada para eles. Existe também a preocupação de não saber ao certo o que  está fazendo, por isso alguns usuários tem receio em confirmar uma operação via aplicação.</t>
+  </si>
+  <si>
+    <t>No processo de login a solução irá avaliar a idade do usuário, caso seja alguém com mais de 60 anos irá apresentar uma opção para utilização de uma interface diferenciada (fontes e botões maiores, e outros recursos necessários). Esta mesma opção poderá ser disponibilizada para outros usuários através do menu de configuração da aplicação. Esta interface poderá ser desenvolvidia com folhas de estilo diferenciadas.</t>
+  </si>
+  <si>
+    <t>Feature 01 - Interface de Usuário</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eu como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ILoveVouchers, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necessito de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uma interface de cadastro intuitiva e amigável</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> novos usuários consigam se cadastrar facilmente em nossa plataforma/app.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feature 02 - Interface Parceiros</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eu como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ILoveVouchers, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necessito de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uma interface com os dados dos parceiros </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>para que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seja possível definir regras de negócios como billing ou integração de nossos serviços com lojas parceiras.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feature 03 - Gestão de Cupons</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eu como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ILoveVouchers, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necessito de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> um sistema de destão de cupons </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>para que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sejam criadas funções para auxiliar nossos usuários no gerenciamento de seus cupons e vouchers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feature 04 - Módulos de Administração</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eu como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ILoveVouchers, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necessito de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uma interface de controle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>para que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> os administradores do sitem possam visualizar detalhes sobre os usuários e parceiros além de gerar relatórios e notificar ou alertar diretamente nossos usuários.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feature 05 - Módulo de Suporte</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eu como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ILoveVouchers, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necessito de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uma função </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>para que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nossos usuários tenham opções para contatar nosso suporte por meio de um chat ou bot de atendimento.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Funcionalidade Persona 02 – “antenada”</t>
     </r>
   </si>
   <si>
@@ -1072,12 +1409,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Opções de iteração com outros usuários com as mesmas preferências</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
+      <t>Opções de interação com outros usuários com as mesmas preferências</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Funcionalidade Persona 03 – “comex”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
     </r>
     <r>
       <rPr>
@@ -1086,7 +1438,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">   </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -1096,27 +1448,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Integração com redes sociais</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Feature 08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Funcionalidade Persona 03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
+      <t>Interface “Conversão Libras”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -1125,7 +1462,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -1135,12 +1472,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Interface “YYYYYYYYY”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
+      <t>Desenvolver na solução uma interface que possa orientar o usuário utilizando vídeos com som e tradução em libra tipo “Hand Talk”</t>
+    </r>
+  </si>
+  <si>
+    <t>Func. Persona 03 - Conversão libras</t>
+  </si>
+  <si>
+    <t>Pontos</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
     </r>
     <r>
       <rPr>
@@ -1149,7 +1495,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">   </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -1159,466 +1505,376 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>XXXXXXX</t>
-    </r>
-  </si>
-  <si>
-    <t>Func. Persona 01 - Melhor Idade</t>
-  </si>
-  <si>
-    <t>Func. Persona 02 - Minha galera 01</t>
-  </si>
-  <si>
-    <t>Func. Persona 02 - Minha galera 02 - Redes Sociais</t>
-  </si>
-  <si>
-    <t>Func. Persona 03 - Interface XXXXX</t>
-  </si>
-  <si>
-    <t>Story # 6</t>
-  </si>
-  <si>
-    <t>Gostaria de que o app tivesse as letras maiores, com informações mais fáceis de ler - é complicado com letras pequenas. E os botões também precisam ser maiores e de fácil acesso. E tenho medo de fazer algo errado, gostaria de confirmar o que estou fazendo.</t>
-  </si>
-  <si>
-    <t>Pessoas de mais idade e até mesmo com algum problema de visão tem dificuldade em operar aplicações que não tem recursos de aumento dos fontes, ou mesmo uma interface mais direcionada para eles. Existe também a preocupação de não saber ao certo o que  está fazendo, por isso alguns usuários tem receio em confirmar uma operação via aplicação.</t>
-  </si>
-  <si>
-    <t>No processo de login a solução irá avaliar a idade do usuário, caso seja alguém com mais de 60 anos irá apresentar uma opção para utilização de uma interface diferenciada (fontes e botões maiores, e outros recursos necessários). Esta mesma opção poderá ser disponibilizada para outros usuários através do menu de configuração da aplicação. Esta interface poderá ser desenvolvidia com folhas de estilo diferenciadas.</t>
-  </si>
-  <si>
-    <t>Feature 01 - Interface de Usuário</t>
+      <t>Gerador de cupons disponíveis (parceiro, região, valor, validade) sem regras de combinação.</t>
+    </r>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Sequencia de Fibonacci: 1, 1, 2, 3, 5, 8, 13, 21, 34, 55</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eu como</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ILoveVouchers, </t>
-    </r>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature 06:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Funcionalidade Persona 01 - "tiozaoRH"</t>
+    </r>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Premissas</t>
+  </si>
+  <si>
+    <t>Cada sprint com 20 dias no máximo</t>
+  </si>
+  <si>
+    <t>Equipe: 01 PO - 01 SM - 08 Developers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidade estimada de pontos por developer: </t>
+  </si>
+  <si>
+    <t>1 ponto</t>
+  </si>
+  <si>
+    <t>16 horas</t>
+  </si>
+  <si>
+    <t>developers</t>
+  </si>
+  <si>
+    <t>horas por dia</t>
+  </si>
+  <si>
+    <t>dias por sprint</t>
+  </si>
+  <si>
+    <t>Capacidade de entrega da equipe por sprint:</t>
+  </si>
+  <si>
+    <t>pontos</t>
+  </si>
+  <si>
+    <t>a cda 20 dias</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>GabRamalho</t>
+  </si>
+  <si>
+    <t>GabGuilherme</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>GabVerissimo</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Sprints x Features</t>
+  </si>
+  <si>
+    <t>Valor estimado 0 a 100</t>
+  </si>
+  <si>
+    <t>100 - Crítica para a aplicação, para registro dos usuários</t>
+  </si>
+  <si>
+    <t>70 - Para facilitar a integração e gestão dos parceiros</t>
+  </si>
+  <si>
+    <t>100 - Core da aplicação</t>
+  </si>
+  <si>
+    <t>50 - Apoio ao usuário para dúvidas e operação da solução</t>
+  </si>
+  <si>
+    <t>50 - Para motivar o pessoal mais novo</t>
+  </si>
+  <si>
+    <t>50 - Para motivar usuários da "Melhor idade"</t>
+  </si>
+  <si>
+    <t>70 - Prover inclusão social</t>
+  </si>
+  <si>
+    <t>Features x Sprints</t>
+  </si>
+  <si>
+    <t>Sprint Planning</t>
+  </si>
+  <si>
+    <r>
+      <t>Feature 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Interface usuários</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Interface parceiros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Gestão Cupons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Gestão Vouchers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Módulo de suporte</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>necessito de</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> uma interface de cadastro intuitiva e amigável</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> para que</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> novos usuários consigam se cadastrar facilmente em nossa plataforma/app.</t>
-    </r>
-  </si>
-  <si>
-    <t>Feature 02 - Interface Parceiros</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eu como</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ILoveVouchers, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>necessito de</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> uma interface com os dados dos parceiros </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>para que</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seja possível definir regras de negócios como billing ou integração de nossos serviços com lojas parceiras.</t>
-    </r>
-  </si>
-  <si>
-    <t>Feature 03 - Gestão de Cupons</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eu como</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  ILoveVouchers, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>necessito de</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> um sistema de destão de cupons </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>para que</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sejam criadas funções para auxiliar nossos usuários no gerenciamento de seus cupons e vouchers.</t>
-    </r>
-  </si>
-  <si>
-    <t>Feature 04 - Módulos de Administração</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eu como</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ILoveVouchers, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>necessito de</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> uma interface de controle </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>para que</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> os administradores do sitem possam visualizar detalhes sobre os usuários e parceiros além de gerar relatórios e notificar ou alertar diretamente nossos usuários.</t>
-    </r>
-  </si>
-  <si>
-    <t>Feature 05 - Módulo de Suporte</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eu como</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ILoveVouchers, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>necessito de</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> uma função </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>para que</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nossos usuários tenham opções para contatar nosso suporte por meio de um chat ou bot de atendimento.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Feature 01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Interface usuários - TICKET</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>EU COMO :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ILOVEVOUCHERS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NECESSITO DE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INTERFACE DE CADASTRO, TENDO: EMAIL, SENHA E USERNAME</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PARA QUE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OS CLIENTES POSSAM FAZER O CADASTRO INICIAL NO APP.</t>
-    </r>
-  </si>
-  <si>
-    <t>EU COMO: ILOVEVOUCHERS</t>
-  </si>
-  <si>
-    <t>NECESSITO DE: INTERFACE DE DADOS DOS PARCEIROS, TENDO: CNPJ, RAZÃO SOCIAL, ETC.</t>
-  </si>
-  <si>
-    <t>PARA: ~~</t>
-  </si>
-  <si>
-    <t>NECESSITO DE: GERADOR DE CUPONS E GERENCIADOR DE MATCHES</t>
-  </si>
-  <si>
-    <t>PARA: GERAR OS MELHORES CUPONS VÁLIDOS DA REGIÃO E DA PREFERÊNCIA DO USUÁRIO</t>
-  </si>
-  <si>
-    <t>NECESSITO DE: MÓDULO DE INTERFACE DE ADMINISTRAÇÃO</t>
-  </si>
-  <si>
-    <t>PARA: GERENCIAR E ADMINISTRAR USUÁRIOS, PARCEIROS, CUPONS, ETC</t>
-  </si>
-  <si>
-    <t>NECESSITO DE: INTERFACE E INTEGRAÇÕES DE SUPORTE</t>
-  </si>
-  <si>
-    <t>PARA: MELHORAR E DAR SUPORTE À EXPERIÊNCIA DO USUÁRIO</t>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature 06:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Funcionalidade Persona 01 - "tiozaoRH"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Funcionalidade Persona 02 – “antenada”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Funcionalidade Persona 03 – “comex”</t>
+    </r>
+  </si>
+  <si>
+    <t>Atividade</t>
+  </si>
+  <si>
+    <t>Product Backlog - Atividades</t>
+  </si>
+  <si>
+    <t>Persona 01 - "Melhor idade"</t>
+  </si>
+  <si>
+    <t>Persona 02 - "Conectada"</t>
+  </si>
+  <si>
+    <t>Persona 03 - "Comex"</t>
+  </si>
+  <si>
+    <t>Modulo de administração</t>
+  </si>
+  <si>
+    <t>5 pontos por sprint de 20 dias</t>
+  </si>
+  <si>
+    <t>40 pontos</t>
+  </si>
+  <si>
+    <t>Story # 2</t>
+  </si>
+  <si>
+    <t>Cadastro parceiros</t>
+  </si>
+  <si>
+    <t>Cadastro usuários</t>
+  </si>
+  <si>
+    <t>Story # 3</t>
+  </si>
+  <si>
+    <t>Story # 4</t>
+  </si>
+  <si>
+    <t>Gestão Vouchers</t>
+  </si>
+  <si>
+    <t>Gestão Coupons</t>
+  </si>
+  <si>
+    <t>Story # 5</t>
+  </si>
+  <si>
+    <t>Módulo suporte usuários</t>
+  </si>
+  <si>
+    <t>Story # 7</t>
+  </si>
+  <si>
+    <t>Func. Persona 02 - Conectada</t>
+  </si>
+  <si>
+    <t>Story # 8</t>
+  </si>
+  <si>
+    <t>Func. Persona 03 - Comex</t>
+  </si>
+  <si>
+    <t>Gostaria que o aplicativo tivesse uma interface com diversas opções de interação com outros usuários que tenham preferências iguais ou, pelo menos, semelhantes as minhas. Seria legal também ter integração com redes sociais para o compartilhamento dos cupons.</t>
+  </si>
+  <si>
+    <t>Pessoas antenadas no mundo das redes sociais querem, a todo momento, interagir com o máximo de pessoas possíveis para não perderem nenhuma novidade. Além disso, esses usuários gostam de ter facilidade no compartilhamento de alguma informação nas redes sociais.</t>
+  </si>
+  <si>
+    <t>Após o cadastro, a aplicação apresentará uma tela com sugestões de tags de determinados assuntos para o usuário seguir e acompanhar aquilo que for do seu interesse. Essa opção poderá ser ajustada posteriormente adicionando novas tags ou removendo as mesmas dos seus interesses.</t>
+  </si>
+  <si>
+    <t>Gostaria que o app tivesse uma area para gestão de vouchers com integração de cupons, onde posso fazer combinações de cupons em determinadas lojas e fornecedores, tendo estes cupons com um teto de % maxima de cupom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este sera uma opção muito boa para clientes e fornecedores, os fornecedores poderão disponibilizar seus produtos com cupons e poderá decidir para quais outros fornecedores e produtos seu cupom poderá combinar. Alem de ser uma opção inovadora, os clientes irão gostar e os fornecedores tambem </t>
+  </si>
+  <si>
+    <t>Nesta funcionalidade de combinação de cupons para se tornarem vouchers, eles terão a opção de selecionar as lojas,produtos e fornecedores para fazer a combinação, estes vouchers, após selecionar as opções, os clientes que tiverem os determinados cupons que se combinam, irá aparecer "combinação perfeita".</t>
+  </si>
+  <si>
+    <t>Gostaria de que o app tivesse acessibilidade, não tenho muito conhecimento na área, mas tenho um filho deficiente auditivo, e estou me informando. Gostaria que o app fosse de fácil acesso, não tenho muito tempo para ficar lendo e procurando as informações necessária (algo mais intuitivo).</t>
+  </si>
+  <si>
+    <t>O mundo está cada vez mais globalizado e inclusivo, e os apps estão percebendo que pessoas deficientes também são clientes em potencial. As famílias estão buscando cada vez mais "tempo de qualidade" quando estão reunidas, e um app complicado de mexer, que o usuário precisa perder tempo entendendo as regras de uso e procurando informações serão preteridos em vista de outros mais práticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No processo de cadastro a solução irá questionar o usuário sobre alguma necessidade diferenciada (Ex.: tradução em libras ou alteração de cores ou tamanho de fonte, para pessoas de baixa visão). Se for requerida, toda vez que o usurário fizer o login a solução já identifica a opção desejada e já inicializa com a acessibilidade solicitada.  Esta mesma opção poderá ser disponibilizada para outros usuários, mesmo sem deficiencia, através do menu de configuração da aplicação. Para tornar o app mais intuitivo ele irá conectar com as escolhas anteriores do usuário. </t>
+  </si>
+  <si>
+    <t>UserStoryPoints e Prioridade</t>
+  </si>
+  <si>
+    <t>UserStoryPoints - Valor estimado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1689,8 +1945,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1727,8 +2029,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1751,11 +2077,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1806,13 +2212,149 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2882,6 +3424,55 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>410632</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>16483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6805BB21-33C1-5FDD-3B55-1CCB32031DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24015700" y="10282839"/>
+          <a:ext cx="5338232" cy="3068644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -3183,340 +3774,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834B3C7B-1F38-45D0-876C-FF09C5DFDC94}">
-  <dimension ref="B3:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:L98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="7.54296875" customWidth="1"/>
-    <col min="4" max="4" width="45.90625" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="1">
-        <v>5</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="1">
-        <v>5</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="1">
-        <v>5</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="1">
-        <v>5</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
+    <col min="1" max="1" width="4.36328125" customWidth="1"/>
     <col min="2" max="2" width="13.90625" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B3" t="str">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="B2" s="41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="58" t="str">
         <f>nome_projeto</f>
         <v>Nome do Projeto: Sistema de gestão de cupons e voucher</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -3526,7 +3822,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -3536,7 +3832,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3546,435 +3842,1476 @@
       <c r="E8" s="5"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C12" s="8"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="8"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E19" s="5"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="22" t="s">
-        <v>171</v>
-      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="21" t="s">
-        <v>185</v>
-      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B40" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="B41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+    </row>
+    <row r="42" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+    </row>
+    <row r="43" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B44" s="5"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B45" s="5"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B46" s="5"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B47" s="5"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B48" s="5"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B49" s="5"/>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B50" s="5"/>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B51" s="5"/>
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B52" s="5"/>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B53" s="5"/>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B54" s="5"/>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B56" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B58" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B61" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B64" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B67" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B70" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B76" s="10"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B77" s="10"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B78" s="10"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="21"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="21"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="21"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="10"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="21"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="21"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="21"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="10"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="21"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="21"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="21"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="10"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="21"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="21"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="E26:L28"/>
-    <mergeCell ref="E29:L31"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="B17:D19"/>
-    <mergeCell ref="E15:L16"/>
-    <mergeCell ref="E17:L19"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="E20:L22"/>
-    <mergeCell ref="B23:D25"/>
-    <mergeCell ref="E23:L25"/>
-    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="B70:D72"/>
+    <mergeCell ref="E67:L69"/>
+    <mergeCell ref="E70:L72"/>
+    <mergeCell ref="B56:D57"/>
+    <mergeCell ref="B58:D60"/>
+    <mergeCell ref="E56:L57"/>
+    <mergeCell ref="E58:L60"/>
+    <mergeCell ref="B61:D63"/>
+    <mergeCell ref="E61:L63"/>
+    <mergeCell ref="B64:D66"/>
+    <mergeCell ref="E64:L66"/>
+    <mergeCell ref="B67:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834B3C7B-1F38-45D0-876C-FF09C5DFDC94}">
+  <dimension ref="B3:AF79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" customWidth="1"/>
+    <col min="4" max="4" width="45.90625" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="10" max="10" width="48.81640625" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.81640625" customWidth="1"/>
+    <col min="15" max="19" width="6.36328125" customWidth="1"/>
+    <col min="30" max="30" width="42.90625" customWidth="1"/>
+    <col min="31" max="31" width="48.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="61.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="48">
+        <v>1</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="48">
+        <v>1</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="48">
+        <v>1</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="48">
+        <v>1</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="48">
+        <v>1</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="51">
+        <v>2</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="51">
+        <v>2</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="51">
+        <v>2</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="28">
+        <v>3</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="51">
+        <v>4</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" s="51">
+        <v>4</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B18" s="51">
+        <v>4</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19" s="28">
+        <v>5</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B20" s="28">
+        <v>5</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B21" s="28">
+        <v>5</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22" s="28">
+        <v>5</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B23" s="28">
+        <v>5</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B24" s="51">
+        <v>6</v>
+      </c>
+      <c r="C24" s="51">
+        <v>18</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="28">
+        <v>7</v>
+      </c>
+      <c r="C25" s="28">
+        <v>19</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B26" s="51">
+        <v>8</v>
+      </c>
+      <c r="C26" s="51">
+        <v>20</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B29" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="56">
+        <v>21</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B30" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="56">
+        <v>22</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B31" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="56">
+        <v>23</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B32" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="56">
+        <v>24</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B33" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="56">
+        <v>25</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B34" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="56">
+        <v>26</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I37" s="42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I38" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="J38" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="L38" s="65" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I39" s="59">
+        <v>5</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="K39" s="59">
+        <v>1</v>
+      </c>
+      <c r="L39" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I40" s="61">
+        <v>8</v>
+      </c>
+      <c r="J40" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="K40" s="62">
+        <v>2</v>
+      </c>
+      <c r="L40" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I41" s="59">
+        <v>21</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K41" s="59">
+        <v>2</v>
+      </c>
+      <c r="L41" s="60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I42" s="61">
+        <v>55</v>
+      </c>
+      <c r="J42" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="K42" s="62">
+        <v>4</v>
+      </c>
+      <c r="L42" s="63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I43" s="59">
+        <v>13</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="K43" s="59">
+        <v>3</v>
+      </c>
+      <c r="L43" s="60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I44" s="61">
+        <v>13</v>
+      </c>
+      <c r="J44" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="K44" s="62">
+        <v>6</v>
+      </c>
+      <c r="L44" s="63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I45" s="59">
+        <v>21</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="K45" s="59">
+        <v>7</v>
+      </c>
+      <c r="L45" s="60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I46" s="61">
+        <v>34</v>
+      </c>
+      <c r="J46" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="K46" s="62">
+        <v>8</v>
+      </c>
+      <c r="L46" s="63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I47" s="66">
+        <f>SUM(I39:I46)</f>
+        <v>170</v>
+      </c>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I48" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="N48" s="42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="14:19" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="N49" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="O49" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49" s="75"/>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="75"/>
+    </row>
+    <row r="50" spans="14:19" x14ac:dyDescent="0.35">
+      <c r="N50" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="O50" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="P50" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q50" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" s="74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N51" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="O51" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
+    </row>
+    <row r="52" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N52" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="O52" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+    </row>
+    <row r="53" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N53" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="O53" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="66"/>
+    </row>
+    <row r="54" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N54" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q54" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+    </row>
+    <row r="55" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N55" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="O55" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="P55" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q55" s="66"/>
+      <c r="R55" s="66"/>
+      <c r="S55" s="66"/>
+    </row>
+    <row r="56" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N56" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+    </row>
+    <row r="57" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N57" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="O57" s="66"/>
+      <c r="P57" s="66"/>
+      <c r="Q57" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="R57" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="S57" s="66"/>
+    </row>
+    <row r="58" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N58" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="S58" s="62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="14:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N60" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="14:19" x14ac:dyDescent="0.35">
+      <c r="N61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="14:19" x14ac:dyDescent="0.35">
+      <c r="N62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="14:19" x14ac:dyDescent="0.35">
+      <c r="N63" t="s">
+        <v>180</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="14:19" x14ac:dyDescent="0.35">
+      <c r="N64" t="s">
+        <v>186</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="30:32" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="AD68" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE68" s="70"/>
+      <c r="AF68" s="70"/>
+    </row>
+    <row r="69" spans="30:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AD69" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE69" s="65" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD70" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE70" s="77" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD71" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE71" s="79" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD72" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE72" s="77" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD73" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE73" s="79" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD74" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE74" s="77" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD75" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE75" s="79" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD76" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE76" s="77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD77" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE77" s="79" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="30:32" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="AD78" s="66"/>
+      <c r="AE78" s="72"/>
+      <c r="AF78" s="70"/>
+    </row>
+    <row r="79" spans="30:32" x14ac:dyDescent="0.35">
+      <c r="AD79" s="73"/>
+      <c r="AE79" s="70"/>
+      <c r="AF79" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O49:S49"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9C0383-BC9C-4317-9C9B-7E5989B0533C}">
-  <dimension ref="A2:L41"/>
+  <dimension ref="A2:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="I44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58:V62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="43.36328125" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.26953125" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C2" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -3982,13 +5319,16 @@
         <f>nome_projeto</f>
         <v>Nome do Projeto: Sistema de gestão de cupons e voucher</v>
       </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
       <c r="L4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -3999,73 +5339,79 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="I6" t="s">
+        <v>190</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="I7" t="s">
+        <v>189</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -4074,104 +5420,110 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>21</v>
       </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
       <c r="L10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>21</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="L13" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>34</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>21</v>
@@ -4180,262 +5532,874 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>139</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
       </c>
       <c r="D16">
         <v>34</v>
       </c>
+      <c r="K16">
+        <v>21</v>
+      </c>
       <c r="L16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D17">
         <v>21</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="K19">
+        <v>55</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>145</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24">
+        <v>21</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>
       <c r="L28" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
       <c r="C29" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C30" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C31" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C32" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="K32">
+        <v>13</v>
       </c>
       <c r="L32" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C33" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C34" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="K35">
+        <v>21</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="L36" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="L37" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="L38" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="K39">
+        <v>34</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="L40" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="L41" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="O44" t="s">
+        <v>181</v>
+      </c>
+      <c r="P44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="J45" t="s">
+        <v>191</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="J46" t="s">
+        <v>198</v>
+      </c>
+      <c r="K46" s="1">
+        <v>5</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ref="O46:O51" si="0">K46*16</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="J47" t="s">
+        <v>195</v>
+      </c>
+      <c r="K47" s="28">
+        <v>8</v>
+      </c>
+      <c r="L47" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" s="24">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="J48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K48" s="1">
+        <v>21</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="J49" t="s">
+        <v>193</v>
+      </c>
+      <c r="K49" s="28">
+        <v>55</v>
+      </c>
+      <c r="L49" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M49" s="24">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="50" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="J50" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="1">
+        <v>13</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="J51" t="s">
+        <v>198</v>
+      </c>
+      <c r="K51" s="28">
+        <v>13</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="M51" s="24">
+        <v>6</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="J52" t="s">
+        <v>197</v>
+      </c>
+      <c r="K52" s="1">
+        <v>21</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M52">
+        <v>7</v>
+      </c>
+      <c r="O52">
+        <f t="shared" ref="O52:O53" si="1">K52*16</f>
+        <v>336</v>
+      </c>
+      <c r="Q52">
+        <v>8</v>
+      </c>
+      <c r="R52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="J53" t="s">
+        <v>194</v>
+      </c>
+      <c r="K53" s="28">
+        <v>34</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="M53" s="24">
+        <v>8</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>544</v>
+      </c>
+      <c r="Q53">
+        <v>8</v>
+      </c>
+      <c r="R53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="K54" s="1">
+        <f>SUM(K46:K53)</f>
+        <v>170</v>
+      </c>
+      <c r="L54" s="14"/>
+      <c r="Q54">
+        <v>20</v>
+      </c>
+      <c r="R54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="K55" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="O55">
+        <f>SUM(O46:O53)</f>
+        <v>2720</v>
+      </c>
+      <c r="P55">
+        <f>8*(20*8)</f>
+        <v>1280</v>
+      </c>
+      <c r="Q55">
+        <f>(Q54*Q53)*Q52</f>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="56" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="L57" s="14"/>
+    </row>
+    <row r="58" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="L58" s="14"/>
+      <c r="M58" s="24"/>
+      <c r="O58" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="L59" s="11"/>
+      <c r="O59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="L60" s="11"/>
+      <c r="O60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="L61" s="11"/>
+      <c r="O61" t="s">
+        <v>180</v>
+      </c>
+      <c r="T61">
+        <v>5</v>
+      </c>
+      <c r="U61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="L62" s="10"/>
+      <c r="O62" t="s">
+        <v>186</v>
+      </c>
+      <c r="T62">
+        <v>40</v>
+      </c>
+      <c r="U62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="10:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L64" s="13"/>
+      <c r="O64" s="1">
+        <f>5*8</f>
+        <v>40</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" ref="P64:S64" si="2">5*8</f>
+        <v>40</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="R64" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="S64" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K65" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="L65" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M65" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T65" s="3"/>
+      <c r="U65" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="V65" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="W65" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="X65" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y65" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K66" s="1">
+        <v>5</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1">
+        <v>5</v>
+      </c>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="34"/>
+    </row>
+    <row r="67" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K67" s="28">
+        <v>8</v>
+      </c>
+      <c r="L67" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M67" s="24">
+        <v>2</v>
+      </c>
+      <c r="O67" s="1">
+        <v>8</v>
+      </c>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="34"/>
+    </row>
+    <row r="68" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K68" s="1">
+        <v>21</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="O68" s="1">
+        <v>21</v>
+      </c>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="34"/>
+    </row>
+    <row r="69" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K69" s="28">
+        <v>55</v>
+      </c>
+      <c r="L69" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M69" s="24">
+        <v>4</v>
+      </c>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1">
+        <v>33</v>
+      </c>
+      <c r="Q69" s="1">
+        <f>55-33</f>
+        <v>22</v>
+      </c>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="34"/>
+    </row>
+    <row r="70" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K70" s="1">
+        <v>13</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="O70" s="1">
+        <v>6</v>
+      </c>
+      <c r="P70" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="33" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="L35" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="L36" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="L37" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="L38" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="L39" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="L40" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="L41" s="14" t="s">
-        <v>154</v>
+      <c r="V70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="34"/>
+    </row>
+    <row r="71" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K71" s="28">
+        <v>13</v>
+      </c>
+      <c r="L71" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="M71" s="24">
+        <v>6</v>
+      </c>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1">
+        <f>K51</f>
+        <v>13</v>
+      </c>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="33"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="34"/>
+    </row>
+    <row r="72" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K72" s="1">
+        <v>21</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M72">
+        <v>7</v>
+      </c>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1">
+        <v>5</v>
+      </c>
+      <c r="R72" s="1">
+        <v>16</v>
+      </c>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="33"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y72" s="34"/>
+    </row>
+    <row r="73" spans="11:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K73" s="28">
+        <v>34</v>
+      </c>
+      <c r="L73" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="M73" s="24">
+        <v>8</v>
+      </c>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1">
+        <v>24</v>
+      </c>
+      <c r="S73" s="1">
+        <v>10</v>
+      </c>
+      <c r="T73" s="1"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="36"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y73" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K74" s="4">
+        <f>SUM(K66:K73)</f>
+        <v>170</v>
+      </c>
+      <c r="L74" s="14"/>
+      <c r="O74" s="4">
+        <f>SUM(O66:O73)</f>
+        <v>40</v>
+      </c>
+      <c r="P74" s="4">
+        <f>SUM(P66:P73)</f>
+        <v>40</v>
+      </c>
+      <c r="Q74" s="4">
+        <f>SUM(Q66:Q73)</f>
+        <v>40</v>
+      </c>
+      <c r="R74" s="4">
+        <f>SUM(R66:R73)</f>
+        <v>40</v>
+      </c>
+      <c r="S74" s="4">
+        <f>SUM(S66:S73)</f>
+        <v>10</v>
+      </c>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+    </row>
+    <row r="75" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K75" s="26" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4449,9 +6413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C92B289-1327-43A2-9FC5-B021202794DA}">
   <dimension ref="A3:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4461,7 +6423,7 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
@@ -4494,10 +6456,10 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="72.5" x14ac:dyDescent="0.35">
@@ -4508,16 +6470,16 @@
         <v>13</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
@@ -4530,13 +6492,13 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -4545,10 +6507,10 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -4581,7 +6543,7 @@
     </row>
     <row r="16" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C16" s="8"/>
       <c r="L16" s="16"/>
@@ -4605,19 +6567,19 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L18">
         <v>40</v>
@@ -4634,10 +6596,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -4647,7 +6609,7 @@
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L19">
         <v>40</v>
@@ -4664,10 +6626,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -4677,7 +6639,7 @@
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L20">
         <v>40</v>
@@ -4694,10 +6656,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -4707,7 +6669,7 @@
         <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L21">
         <v>40</v>
@@ -4724,10 +6686,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -4737,7 +6699,7 @@
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L22">
         <v>40</v>
@@ -4754,10 +6716,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -4769,10 +6731,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E24">
         <v>24</v>
@@ -4799,10 +6761,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -4813,10 +6775,10 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E26">
         <v>24</v>
@@ -4827,10 +6789,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -4842,10 +6804,10 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E28">
         <f>SUM(E19:E27)*30%</f>
@@ -4868,15 +6830,15 @@
         <v>2</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E32">
         <v>72</v>
@@ -4887,10 +6849,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E33">
         <v>72</v>
@@ -4901,7 +6863,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E34">
         <f>SUM(E32:E33)*30%</f>
@@ -4926,15 +6888,15 @@
         <v>3</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E37">
         <v>72</v>
@@ -4945,10 +6907,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E38">
         <v>72</v>
@@ -4968,7 +6930,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C41" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G41">
         <f>SUM(G19:G39)</f>

--- a/SCRUM_apoio.xlsx
+++ b/SCRUM_apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dados\01-Votorantim\01-VPAR\00-Novas Tecnologias\2022\99-TEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4903CB-5F53-4C81-8197-5E23047AC2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B62EA1-616E-4C02-B242-11BC3A3D4F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserStories" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="259">
   <si>
     <t>Gráfico BurnDown - Exemplo</t>
   </si>
@@ -1868,6 +1868,33 @@
   </si>
   <si>
     <t>UserStoryPoints - Valor estimado</t>
+  </si>
+  <si>
+    <t>O primeiro passo na aplicação é permitir que os parceiros se cadastrem na plataforma usando a razão social ou o CNPJ. A interface deve ser simples e bem informativa, porém com alguns cuidados.</t>
+  </si>
+  <si>
+    <t>Cadatro será da seguinte maneira - razão social, cnpj, contatos (representantes autorizados, com respectivos emails e telefones). Será feita uma consulta junto ao site da Receita Federal para ver se os dados são válidos (via api ou bot), se sim informaremos através de email o(s) representante(s) para dar prosseguimento no restante do cadastro - regras de billing, integração com nossos serviços, regras de combinação com outros parceiros, etc. Caso contrário iremos informar o motivo do não cadastramento.</t>
+  </si>
+  <si>
+    <t>Eu como fornecedor do produto ou serviço X quero entrar na plataforma e me cadastrar para ampliar minhas vendas, oferecendo cupons de desconto para o maior numero de usuários. Quero também poder alavancar minhas vendas através de outras empresas com produtos ou mesmo serviços relacionados ao que ofereço.</t>
+  </si>
+  <si>
+    <t>Eu usuário da solução quero acessar a aplicação para checar quais são os cupons oferecidos, para utilizar os mesmos em descontos em minhas próximas compras. Gostaria de escolher meus interesses e mesmo ter opinião de outros usuários sobre experiências passadas, isso com o mínimo de navegação possível.</t>
+  </si>
+  <si>
+    <t>Quando o usuário quer adquirir algo que está procurando precisamos captar a demanda o mais rápido possível, antes que ele procure por outra plataforma ou mude de ideia a respeito da compra.</t>
+  </si>
+  <si>
+    <t>A solução precisa apresentar de imediato os cupons disponíveis de acordo com as áreas de interesse definidas pelo usuário, ou mesmo áreas afins que possam ser identificadas de forma sistêmica (ex.: estou procurando serviços de pintura, a aplicação já identifica cupons de lojas de tintas ou materiais de construção para apresentar junto). Será necessário um engine de "Minhas preferências" e outro para realizar estas associações (mais complexo).</t>
+  </si>
+  <si>
+    <t>Eu como usuário gostaria de ter minhas dúvidas respondidas na hora - em caso de problemas quero falar imediatamente com alguém que possa resolver a situação. Se tiver que ficar procurando por informações provavelmente vou desistir, se alguém puder retornar de forma rápida é aceitável.</t>
+  </si>
+  <si>
+    <t>Usuários não gostam de URAS ou outros tipos de central de atendimento que os deixem esperando, então o suporte precisa ser muito objetivo e este é um grande desafio, não podemos orçar uma grande equipe de atendimento e também não pode ser uma ajuda no estilo de "Manual de Utilização", os usuários não tem tempo para isso.</t>
+  </si>
+  <si>
+    <t>Iniciamente implementar um bot de atendimento que possa ir sendo melhorado com o tempo, incorporando as novas dúvidas e mesmo soluções. Além do bot podemos orçar uma equipe humana (mnima´) que possa atender também via whatsapp em modelo de callback (deverá ter SLA adequado). E uma alternativa para manuais serão videos curtos sobre as principais dúvidas, usando avatares ou personagens fictícios para exemplificar o problema e/ou solução - lembrando que precisam ser curtos, no máximo 01 minuto - mais do que isso o risco é perder o cliente.</t>
   </si>
 </sst>
 </file>
@@ -2161,7 +2188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2250,12 +2277,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2318,26 +2339,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2354,6 +2356,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3777,7 +3788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3787,12 +3800,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="58" t="str">
+      <c r="B3" s="56" t="str">
         <f>nome_projeto</f>
         <v>Nome do Projeto: Sistema de gestão de cupons e voucher</v>
       </c>
@@ -3844,10 +3857,10 @@
     </row>
     <row r="9" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>227</v>
       </c>
       <c r="E10" s="5"/>
@@ -3857,7 +3870,9 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>252</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="8"/>
     </row>
@@ -3865,7 +3880,9 @@
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>250</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="8"/>
     </row>
@@ -3873,7 +3890,9 @@
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="8"/>
     </row>
@@ -3885,10 +3904,10 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="65" t="s">
         <v>232</v>
       </c>
       <c r="E15" s="5"/>
@@ -3898,7 +3917,9 @@
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>253</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="8"/>
     </row>
@@ -3906,7 +3927,9 @@
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="8"/>
     </row>
@@ -3914,7 +3937,9 @@
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>255</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="8"/>
     </row>
@@ -3926,10 +3951,10 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="65" t="s">
         <v>231</v>
       </c>
       <c r="E20" s="5"/>
@@ -3939,7 +3964,7 @@
       <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="8" t="s">
         <v>242</v>
       </c>
       <c r="E21" s="5"/>
@@ -3949,7 +3974,7 @@
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E22" s="5"/>
@@ -3959,7 +3984,7 @@
       <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="8" t="s">
         <v>244</v>
       </c>
       <c r="E23" s="5"/>
@@ -3973,10 +3998,10 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="65" t="s">
         <v>234</v>
       </c>
       <c r="E25" s="5"/>
@@ -3986,7 +4011,9 @@
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="8"/>
     </row>
@@ -3994,15 +4021,19 @@
       <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="107" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>258</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="8"/>
     </row>
@@ -4060,7 +4091,7 @@
       <c r="B36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4068,7 +4099,7 @@
       <c r="B37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="8" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4076,7 +4107,7 @@
       <c r="B38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="8" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4097,49 +4128,49 @@
       <c r="B41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
@@ -4189,249 +4220,249 @@
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39" t="s">
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38" t="s">
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="72"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38" t="s">
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38" t="s">
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="72"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38" t="s">
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="72"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38" t="s">
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" s="10"/>
@@ -4515,7 +4546,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834B3C7B-1F38-45D0-876C-FF09C5DFDC94}">
-  <dimension ref="B3:AF79"/>
+  <dimension ref="B3:AE79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4546,108 +4577,108 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="44" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="48">
+      <c r="B7" s="46">
         <v>1</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="48" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="48">
+      <c r="B8" s="46">
         <v>1</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="48" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="48">
+      <c r="B9" s="46">
         <v>1</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="48">
+      <c r="B10" s="46">
         <v>1</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="48" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="48">
+      <c r="B11" s="46">
         <v>1</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="48" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="51">
+      <c r="B12" s="49">
         <v>2</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="51" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="51">
+      <c r="B13" s="49">
         <v>2</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="51" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="51">
+      <c r="B14" s="49">
         <v>2</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="51" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="9"/>
@@ -4656,7 +4687,7 @@
       <c r="B15" s="28">
         <v>3</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -4665,37 +4696,37 @@
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="51">
+      <c r="B16" s="49">
         <v>4</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="51" t="s">
         <v>125</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="51">
+      <c r="B17" s="49">
         <v>4</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="51" t="s">
         <v>124</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="51">
+      <c r="B18" s="49">
         <v>4</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="51" t="s">
         <v>127</v>
       </c>
       <c r="E18" s="9"/>
@@ -4704,7 +4735,7 @@
       <c r="B19" s="28">
         <v>5</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="52" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="16" t="s">
@@ -4716,7 +4747,7 @@
       <c r="B20" s="28">
         <v>5</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="52" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -4728,7 +4759,7 @@
       <c r="B21" s="28">
         <v>5</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="52" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -4740,7 +4771,7 @@
       <c r="B22" s="28">
         <v>5</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="52" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -4752,7 +4783,7 @@
       <c r="B23" s="28">
         <v>5</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="52" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -4761,13 +4792,13 @@
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="51">
+      <c r="B24" s="49">
         <v>6</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="49">
         <v>18</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="51" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4783,13 +4814,13 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="51">
+      <c r="B26" s="49">
         <v>8</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="49">
         <v>20</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="51" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4804,204 +4835,204 @@
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="54">
         <v>21</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="54">
         <v>22</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="55" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="54">
         <v>23</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="54">
         <v>24</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="54">
         <v>25</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="55" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="54">
         <v>26</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="55" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="I37" s="42" t="s">
+      <c r="I37" s="40" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I38" s="64" t="s">
+      <c r="I38" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="J38" s="65" t="s">
+      <c r="J38" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="K38" s="64" t="s">
+      <c r="K38" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="L38" s="65" t="s">
+      <c r="L38" s="63" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I39" s="59">
+      <c r="I39" s="57">
         <v>5</v>
       </c>
-      <c r="J39" s="43" t="s">
+      <c r="J39" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="K39" s="59">
+      <c r="K39" s="57">
         <v>1</v>
       </c>
-      <c r="L39" s="60" t="s">
+      <c r="L39" s="58" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I40" s="61">
+      <c r="I40" s="59">
         <v>8</v>
       </c>
-      <c r="J40" s="44" t="s">
+      <c r="J40" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="K40" s="62">
+      <c r="K40" s="60">
         <v>2</v>
       </c>
-      <c r="L40" s="63" t="s">
+      <c r="L40" s="61" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I41" s="59">
+      <c r="I41" s="57">
         <v>21</v>
       </c>
-      <c r="J41" s="43" t="s">
+      <c r="J41" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="K41" s="59">
+      <c r="K41" s="57">
         <v>2</v>
       </c>
-      <c r="L41" s="60" t="s">
+      <c r="L41" s="58" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I42" s="61">
+      <c r="I42" s="59">
         <v>55</v>
       </c>
-      <c r="J42" s="44" t="s">
+      <c r="J42" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="K42" s="62">
+      <c r="K42" s="60">
         <v>4</v>
       </c>
-      <c r="L42" s="63" t="s">
+      <c r="L42" s="61" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I43" s="59">
+      <c r="I43" s="57">
         <v>13</v>
       </c>
-      <c r="J43" s="43" t="s">
+      <c r="J43" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="K43" s="59">
+      <c r="K43" s="57">
         <v>3</v>
       </c>
-      <c r="L43" s="60" t="s">
+      <c r="L43" s="58" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I44" s="61">
+      <c r="I44" s="59">
         <v>13</v>
       </c>
-      <c r="J44" s="45" t="s">
+      <c r="J44" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="K44" s="62">
+      <c r="K44" s="60">
         <v>6</v>
       </c>
-      <c r="L44" s="63" t="s">
+      <c r="L44" s="61" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I45" s="59">
+      <c r="I45" s="57">
         <v>21</v>
       </c>
-      <c r="J45" s="43" t="s">
+      <c r="J45" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="K45" s="59">
+      <c r="K45" s="57">
         <v>7</v>
       </c>
-      <c r="L45" s="60" t="s">
+      <c r="L45" s="58" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I46" s="61">
+      <c r="I46" s="59">
         <v>34</v>
       </c>
-      <c r="J46" s="44" t="s">
+      <c r="J46" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="K46" s="62">
+      <c r="K46" s="60">
         <v>8</v>
       </c>
-      <c r="L46" s="63" t="s">
+      <c r="L46" s="61" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I47" s="66">
+      <c r="I47" s="64">
         <f>SUM(I39:I46)</f>
         <v>170</v>
       </c>
@@ -5011,143 +5042,143 @@
       <c r="I48" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="N48" s="42" t="s">
+      <c r="N48" s="40" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="49" spans="14:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="N49" s="40" t="s">
+      <c r="N49" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="O49" s="75" t="s">
+      <c r="O49" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="P49" s="75"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="75"/>
-      <c r="S49" s="75"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="74"/>
     </row>
     <row r="50" spans="14:19" x14ac:dyDescent="0.35">
       <c r="N50" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="O50" s="74" t="s">
+      <c r="O50" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="P50" s="74" t="s">
+      <c r="P50" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="Q50" s="74" t="s">
+      <c r="Q50" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="74" t="s">
+      <c r="R50" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="S50" s="74" t="s">
+      <c r="S50" s="66" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="N51" s="43" t="s">
+      <c r="N51" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="O51" s="66" t="s">
+      <c r="O51" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="66"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
     </row>
     <row r="52" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N52" s="44" t="s">
+      <c r="N52" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="O52" s="62" t="s">
+      <c r="O52" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
     </row>
     <row r="53" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="N53" s="43" t="s">
+      <c r="N53" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="O53" s="66" t="s">
+      <c r="O53" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="66"/>
-      <c r="R53" s="66"/>
-      <c r="S53" s="66"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
     </row>
     <row r="54" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N54" s="44" t="s">
+      <c r="N54" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62" t="s">
+      <c r="O54" s="60"/>
+      <c r="P54" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="Q54" s="62" t="s">
+      <c r="Q54" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
     </row>
     <row r="55" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="N55" s="43" t="s">
+      <c r="N55" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="O55" s="66" t="s">
+      <c r="O55" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="P55" s="66" t="s">
+      <c r="P55" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="Q55" s="66"/>
-      <c r="R55" s="66"/>
-      <c r="S55" s="66"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="S55" s="64"/>
     </row>
     <row r="56" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N56" s="45" t="s">
+      <c r="N56" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62" t="s">
+      <c r="O56" s="60"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="R56" s="62"/>
-      <c r="S56" s="62"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="60"/>
     </row>
     <row r="57" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="N57" s="43" t="s">
+      <c r="N57" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="O57" s="66"/>
-      <c r="P57" s="66"/>
-      <c r="Q57" s="66" t="s">
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="R57" s="66" t="s">
+      <c r="R57" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="S57" s="66"/>
+      <c r="S57" s="64"/>
     </row>
     <row r="58" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N58" s="44" t="s">
+      <c r="N58" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="O58" s="62"/>
-      <c r="P58" s="62"/>
-      <c r="Q58" s="62"/>
-      <c r="R58" s="62" t="s">
+      <c r="O58" s="60"/>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="S58" s="62" t="s">
+      <c r="S58" s="60" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5182,94 +5213,89 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="30:32" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="AD68" s="42" t="s">
+    <row r="68" spans="30:31" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="AD68" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="AE68" s="70"/>
-      <c r="AF68" s="70"/>
-    </row>
-    <row r="69" spans="30:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="AD69" s="65" t="s">
+    </row>
+    <row r="69" spans="30:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AD69" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AE69" s="65" t="s">
+      <c r="AE69" s="63" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD70" s="76" t="s">
+    <row r="70" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD70" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="AE70" s="77" t="s">
+      <c r="AE70" s="68" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD71" s="78" t="s">
+    <row r="71" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD71" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="AE71" s="79" t="s">
+      <c r="AE71" s="70" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD72" s="76" t="s">
+    <row r="72" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD72" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="AE72" s="77" t="s">
+      <c r="AE72" s="68" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD73" s="78" t="s">
+    <row r="73" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD73" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="AE73" s="79" t="s">
+      <c r="AE73" s="70" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD74" s="76" t="s">
+    <row r="74" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD74" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="AE74" s="77" t="s">
+      <c r="AE74" s="68" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD75" s="80" t="s">
+    <row r="75" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD75" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="AE75" s="79" t="s">
+      <c r="AE75" s="70" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD76" s="76" t="s">
+    <row r="76" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD76" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="AE76" s="77" t="s">
+      <c r="AE76" s="68" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="30:32" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AD77" s="78" t="s">
+    <row r="77" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD77" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="AE77" s="79" t="s">
+      <c r="AE77" s="70" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="30:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="AD78" s="66"/>
-      <c r="AE78" s="72"/>
-      <c r="AF78" s="70"/>
-    </row>
-    <row r="79" spans="30:32" x14ac:dyDescent="0.35">
-      <c r="AD79" s="73"/>
-      <c r="AE79" s="70"/>
-      <c r="AF79" s="70"/>
+    <row r="78" spans="30:31" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="AD78" s="64"/>
+      <c r="AE78" s="14"/>
+    </row>
+    <row r="79" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD79" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SCRUM_apoio.xlsx
+++ b/SCRUM_apoio.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dados\01-Votorantim\01-VPAR\00-Novas Tecnologias\2022\99-TEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B62EA1-616E-4C02-B242-11BC3A3D4F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7282B6-32C5-4AFD-BD18-3DB03A4B697E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserStories" sheetId="1" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="4" r:id="rId2"/>
     <sheet name="Sprint Planning" sheetId="5" r:id="rId3"/>
-    <sheet name="UserStoryPoints" sheetId="3" r:id="rId4"/>
-    <sheet name="BurnDown" sheetId="2" r:id="rId5"/>
+    <sheet name="Valor Estimado" sheetId="6" r:id="rId4"/>
+    <sheet name="UserStoryPoints" sheetId="3" r:id="rId5"/>
+    <sheet name="BurnDown" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="nome_projeto">'Product Backlog'!$B$4</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="300">
   <si>
     <t>Gráfico BurnDown - Exemplo</t>
   </si>
@@ -1643,9 +1644,6 @@
     <t>Features x Sprints</t>
   </si>
   <si>
-    <t>Sprint Planning</t>
-  </si>
-  <si>
     <r>
       <t>Feature 01</t>
     </r>
@@ -1828,9 +1826,6 @@
     <t>Story # 7</t>
   </si>
   <si>
-    <t>Func. Persona 02 - Conectada</t>
-  </si>
-  <si>
     <t>Story # 8</t>
   </si>
   <si>
@@ -1895,13 +1890,273 @@
   </si>
   <si>
     <t>Iniciamente implementar um bot de atendimento que possa ir sendo melhorado com o tempo, incorporando as novas dúvidas e mesmo soluções. Além do bot podemos orçar uma equipe humana (mnima´) que possa atender também via whatsapp em modelo de callback (deverá ter SLA adequado). E uma alternativa para manuais serão videos curtos sobre as principais dúvidas, usando avatares ou personagens fictícios para exemplificar o problema e/ou solução - lembrando que precisam ser curtos, no máximo 01 minuto - mais do que isso o risco é perder o cliente.</t>
+  </si>
+  <si>
+    <t>Falta</t>
+  </si>
+  <si>
+    <t>Dividir equipe até amanhã a noite, para se prepararem para quinta!</t>
+  </si>
+  <si>
+    <t>Quem vai apresentar? Sequencia!</t>
+  </si>
+  <si>
+    <t>70 - Para motivar usuários da "Melhor idade"</t>
+  </si>
+  <si>
+    <t>Gabriel Verissimo</t>
+  </si>
+  <si>
+    <t>Gabriel Guilherme</t>
+  </si>
+  <si>
+    <t>Gabriel Ramalho</t>
+  </si>
+  <si>
+    <t>Felipe Souza</t>
+  </si>
+  <si>
+    <t>Diego Trindade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando </t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>Comex</t>
+  </si>
+  <si>
+    <t>TiozaoRH</t>
+  </si>
+  <si>
+    <t>Antenada</t>
+  </si>
+  <si>
+    <t>Gestão Projeto e Citação</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>b, c</t>
+  </si>
+  <si>
+    <t>d, f</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Tópicos</t>
+  </si>
+  <si>
+    <t>Início, Squad</t>
+  </si>
+  <si>
+    <t>2 por semana</t>
+  </si>
+  <si>
+    <r>
+      <t>Feature 08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Funcionalidade Persona 03 – “comex”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Libras</t>
+    </r>
+  </si>
+  <si>
+    <t>70 - Para motivar o pessoal mais jovem</t>
+  </si>
+  <si>
+    <t>Classificação prioridades</t>
+  </si>
+  <si>
+    <t>F02/F03</t>
+  </si>
+  <si>
+    <t>Sprint Planning Inicial</t>
+  </si>
+  <si>
+    <r>
+      <t>Feature 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Interface usuários</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Interface parceiros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Gestão Cupons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Gestão Vouchers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Módulo de suporte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 06:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Funcionalidade Persona 01 - "tiozaoRH"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Funcionalidade Persona 02 – “antenada”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Funcionalidade Persona 03 – “comex”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feature 02 / 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Interface parceiros e Gestão de Cupons</t>
+    </r>
+  </si>
+  <si>
+    <t>Func. Persona 02 - "Antenada"</t>
+  </si>
+  <si>
+    <t>Points Planejados</t>
+  </si>
+  <si>
+    <t>Points Ajustados</t>
+  </si>
+  <si>
+    <t>Funcionalidades - Valor estimado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2018,8 +2273,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2080,8 +2366,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2184,11 +2494,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2357,6 +2743,122 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2364,6 +2866,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3484,6 +4029,99 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8305</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>6357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>750522</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF886C66-E7D4-830B-9E69-98D2F2C45955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23110093" y="13773645"/>
+          <a:ext cx="742217" cy="357481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1003790</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>7171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>199782</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>102310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A6E589-18AB-DB11-EDF4-CEBF20BA780E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24105578" y="13774459"/>
+          <a:ext cx="733669" cy="461485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -3788,9 +4426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3820,7 +4456,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
@@ -3858,10 +4494,10 @@
     <row r="9" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>226</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>227</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="8"/>
@@ -3871,7 +4507,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="8"/>
@@ -3881,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="8"/>
@@ -3891,7 +4527,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="8"/>
@@ -3905,10 +4541,10 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="8"/>
@@ -3918,7 +4554,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="8"/>
@@ -3928,7 +4564,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="8"/>
@@ -3938,7 +4574,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="8"/>
@@ -3952,10 +4588,10 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>230</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>231</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="8"/>
@@ -3965,7 +4601,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="8"/>
@@ -3975,7 +4611,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="8"/>
@@ -3985,7 +4621,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="8"/>
@@ -3999,10 +4635,10 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="65" t="s">
         <v>233</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>234</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="8"/>
@@ -4012,7 +4648,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="8"/>
@@ -4022,7 +4658,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="8"/>
@@ -4032,7 +4668,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="8"/>
@@ -4081,10 +4717,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -4092,7 +4728,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -4100,7 +4736,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -4108,7 +4744,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -4118,10 +4754,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -4129,7 +4765,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -4145,7 +4781,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -4161,7 +4797,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -4220,249 +4856,249 @@
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73" t="s">
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="121"/>
+      <c r="L56" s="121"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="121"/>
+      <c r="K57" s="121"/>
+      <c r="L57" s="121"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72" t="s">
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
-      <c r="J58" s="72"/>
-      <c r="K58" s="72"/>
-      <c r="L58" s="72"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="120"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="120"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="120"/>
+      <c r="L59" s="120"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="120"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="120"/>
+      <c r="L60" s="120"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72" t="s">
+      <c r="C61" s="120"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="120"/>
+      <c r="K61" s="120"/>
+      <c r="L61" s="120"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="120"/>
+      <c r="L62" s="120"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
+      <c r="B63" s="120"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="120"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="120"/>
+      <c r="H63" s="120"/>
+      <c r="I63" s="120"/>
+      <c r="J63" s="120"/>
+      <c r="K63" s="120"/>
+      <c r="L63" s="120"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72" t="s">
+      <c r="C64" s="120"/>
+      <c r="D64" s="120"/>
+      <c r="E64" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="120"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="120"/>
+      <c r="J64" s="120"/>
+      <c r="K64" s="120"/>
+      <c r="L64" s="120"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
+      <c r="B65" s="120"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="120"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="120"/>
+      <c r="G65" s="120"/>
+      <c r="H65" s="120"/>
+      <c r="I65" s="120"/>
+      <c r="J65" s="120"/>
+      <c r="K65" s="120"/>
+      <c r="L65" s="120"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="72"/>
-      <c r="K66" s="72"/>
-      <c r="L66" s="72"/>
+      <c r="B66" s="120"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="120"/>
+      <c r="H66" s="120"/>
+      <c r="I66" s="120"/>
+      <c r="J66" s="120"/>
+      <c r="K66" s="120"/>
+      <c r="L66" s="120"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72" t="s">
+      <c r="C67" s="120"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="72"/>
+      <c r="F67" s="120"/>
+      <c r="G67" s="120"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="120"/>
+      <c r="J67" s="120"/>
+      <c r="K67" s="120"/>
+      <c r="L67" s="120"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="72"/>
-      <c r="L68" s="72"/>
+      <c r="B68" s="120"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="120"/>
+      <c r="F68" s="120"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="120"/>
+      <c r="I68" s="120"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="120"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="72"/>
-      <c r="K69" s="72"/>
-      <c r="L69" s="72"/>
+      <c r="B69" s="120"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="120"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="120"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72" t="s">
+      <c r="C70" s="120"/>
+      <c r="D70" s="120"/>
+      <c r="E70" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="72"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="72"/>
+      <c r="F70" s="120"/>
+      <c r="G70" s="120"/>
+      <c r="H70" s="120"/>
+      <c r="I70" s="120"/>
+      <c r="J70" s="120"/>
+      <c r="K70" s="120"/>
+      <c r="L70" s="120"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="72"/>
-      <c r="L71" s="72"/>
+      <c r="B71" s="120"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="120"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="120"/>
+      <c r="H71" s="120"/>
+      <c r="I71" s="120"/>
+      <c r="J71" s="120"/>
+      <c r="K71" s="120"/>
+      <c r="L71" s="120"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
-      <c r="K72" s="72"/>
-      <c r="L72" s="72"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="120"/>
+      <c r="E72" s="120"/>
+      <c r="F72" s="120"/>
+      <c r="G72" s="120"/>
+      <c r="H72" s="120"/>
+      <c r="I72" s="120"/>
+      <c r="J72" s="120"/>
+      <c r="K72" s="120"/>
+      <c r="L72" s="120"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" s="10"/>
@@ -4548,7 +5184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834B3C7B-1F38-45D0-876C-FF09C5DFDC94}">
   <dimension ref="B3:AE79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A38" zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4568,7 +5204,7 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
@@ -4584,7 +5220,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
@@ -4799,7 +5435,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
@@ -4810,7 +5446,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
@@ -4821,7 +5457,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
@@ -4829,7 +5465,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="1"/>
       <c r="N28" s="14"/>
@@ -4902,7 +5538,7 @@
     </row>
     <row r="37" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="I37" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -4924,7 +5560,7 @@
         <v>5</v>
       </c>
       <c r="J39" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K39" s="57">
         <v>1</v>
@@ -4938,10 +5574,10 @@
         <v>8</v>
       </c>
       <c r="J40" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K40" s="60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40" s="61" t="s">
         <v>202</v>
@@ -4952,7 +5588,7 @@
         <v>21</v>
       </c>
       <c r="J41" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K41" s="57">
         <v>2</v>
@@ -4966,10 +5602,10 @@
         <v>55</v>
       </c>
       <c r="J42" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K42" s="60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L42" s="61" t="s">
         <v>203</v>
@@ -4980,10 +5616,10 @@
         <v>13</v>
       </c>
       <c r="J43" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K43" s="57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L43" s="58" t="s">
         <v>204</v>
@@ -4994,13 +5630,13 @@
         <v>13</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K44" s="60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L44" s="61" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
@@ -5008,13 +5644,13 @@
         <v>21</v>
       </c>
       <c r="J45" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K45" s="57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L45" s="58" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
@@ -5022,10 +5658,10 @@
         <v>34</v>
       </c>
       <c r="J46" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K46" s="60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L46" s="61" t="s">
         <v>207</v>
@@ -5043,20 +5679,20 @@
         <v>172</v>
       </c>
       <c r="N48" s="40" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="14:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N49" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="O49" s="74" t="s">
+      <c r="O49" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="P49" s="74"/>
-      <c r="Q49" s="74"/>
-      <c r="R49" s="74"/>
-      <c r="S49" s="74"/>
+      <c r="P49" s="122"/>
+      <c r="Q49" s="122"/>
+      <c r="R49" s="122"/>
+      <c r="S49" s="122"/>
     </row>
     <row r="50" spans="14:19" x14ac:dyDescent="0.35">
       <c r="N50" s="23" t="s">
@@ -5080,7 +5716,7 @@
     </row>
     <row r="51" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N51" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O51" s="64" t="s">
         <v>169</v>
@@ -5092,7 +5728,7 @@
     </row>
     <row r="52" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N52" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O52" s="60" t="s">
         <v>169</v>
@@ -5104,7 +5740,7 @@
     </row>
     <row r="53" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N53" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O53" s="64" t="s">
         <v>169</v>
@@ -5116,7 +5752,7 @@
     </row>
     <row r="54" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N54" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O54" s="60"/>
       <c r="P54" s="60" t="s">
@@ -5130,7 +5766,7 @@
     </row>
     <row r="55" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N55" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O55" s="64" t="s">
         <v>169</v>
@@ -5144,7 +5780,7 @@
     </row>
     <row r="56" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N56" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O56" s="60"/>
       <c r="P56" s="60"/>
@@ -5156,7 +5792,7 @@
     </row>
     <row r="57" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N57" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O57" s="64"/>
       <c r="P57" s="64"/>
@@ -5170,7 +5806,7 @@
     </row>
     <row r="58" spans="14:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N58" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O58" s="60"/>
       <c r="P58" s="60"/>
@@ -5202,7 +5838,7 @@
         <v>180</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="14:19" x14ac:dyDescent="0.35">
@@ -5210,12 +5846,12 @@
         <v>186</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="30:31" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="AD68" s="40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="30:31" ht="15.5" x14ac:dyDescent="0.35">
@@ -5228,7 +5864,7 @@
     </row>
     <row r="70" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AD70" s="67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AE70" s="68" t="s">
         <v>201</v>
@@ -5236,7 +5872,7 @@
     </row>
     <row r="71" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AD71" s="69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE71" s="70" t="s">
         <v>202</v>
@@ -5244,7 +5880,7 @@
     </row>
     <row r="72" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AD72" s="67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE72" s="68" t="s">
         <v>203</v>
@@ -5252,7 +5888,7 @@
     </row>
     <row r="73" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AD73" s="69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE73" s="70" t="s">
         <v>203</v>
@@ -5260,7 +5896,7 @@
     </row>
     <row r="74" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AD74" s="67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE74" s="68" t="s">
         <v>204</v>
@@ -5268,7 +5904,7 @@
     </row>
     <row r="75" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AD75" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AE75" s="70" t="s">
         <v>206</v>
@@ -5276,7 +5912,7 @@
     </row>
     <row r="76" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AD76" s="67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE76" s="68" t="s">
         <v>205</v>
@@ -5284,7 +5920,7 @@
     </row>
     <row r="77" spans="30:31" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AD77" s="69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE77" s="70" t="s">
         <v>207</v>
@@ -5310,18 +5946,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9C0383-BC9C-4317-9C9B-7E5989B0533C}">
-  <dimension ref="A2:Y75"/>
+  <dimension ref="A2:AG102"/>
   <sheetViews>
-    <sheetView topLeftCell="I44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58:V62"/>
+    <sheetView tabSelected="1" topLeftCell="F108" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="Q95" sqref="Q95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="43.36328125" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.26953125" customWidth="1"/>
+    <col min="10" max="11" width="9.08984375" customWidth="1"/>
+    <col min="12" max="12" width="44.1796875" customWidth="1"/>
     <col min="13" max="13" width="9.453125" customWidth="1"/>
+    <col min="30" max="30" width="22" customWidth="1"/>
+    <col min="31" max="31" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -5837,7 +6477,13 @@
         <v>166</v>
       </c>
     </row>
+    <row r="43" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="K44" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="L44" s="80"/>
+      <c r="M44" s="81"/>
       <c r="O44" t="s">
         <v>181</v>
       </c>
@@ -5849,13 +6495,13 @@
       <c r="J45" t="s">
         <v>191</v>
       </c>
-      <c r="K45" s="27" t="s">
+      <c r="K45" s="82" t="s">
         <v>171</v>
       </c>
       <c r="L45" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="M45" s="23" t="s">
+      <c r="M45" s="83" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5863,13 +6509,13 @@
       <c r="J46" t="s">
         <v>198</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="33">
         <v>5</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="84">
         <v>1</v>
       </c>
       <c r="O46">
@@ -5881,13 +6527,13 @@
       <c r="J47" t="s">
         <v>195</v>
       </c>
-      <c r="K47" s="28">
+      <c r="K47" s="85">
         <v>8</v>
       </c>
       <c r="L47" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M47" s="24">
+      <c r="M47" s="86">
         <v>2</v>
       </c>
       <c r="O47">
@@ -5899,13 +6545,13 @@
       <c r="J48" t="s">
         <v>196</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="33">
         <v>21</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="84">
         <v>2</v>
       </c>
       <c r="O48">
@@ -5913,76 +6559,76 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:25" x14ac:dyDescent="0.35">
       <c r="J49" t="s">
         <v>193</v>
       </c>
-      <c r="K49" s="28">
+      <c r="K49" s="85">
         <v>55</v>
       </c>
       <c r="L49" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="M49" s="24">
-        <v>4</v>
+      <c r="M49" s="86">
+        <v>3</v>
       </c>
       <c r="O49">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
     </row>
-    <row r="50" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J50" t="s">
         <v>192</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="35">
         <v>13</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="M50">
-        <v>3</v>
+      <c r="M50" s="88">
+        <v>4</v>
       </c>
       <c r="O50">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:25" x14ac:dyDescent="0.35">
       <c r="J51" t="s">
         <v>198</v>
       </c>
-      <c r="K51" s="28">
-        <v>13</v>
-      </c>
-      <c r="L51" s="29" t="s">
+      <c r="K51" s="89">
+        <v>8</v>
+      </c>
+      <c r="L51" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="M51" s="24">
-        <v>6</v>
+      <c r="M51" s="91">
+        <v>1</v>
       </c>
       <c r="O51">
         <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="10:22" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="10:25" x14ac:dyDescent="0.35">
       <c r="J52" t="s">
         <v>197</v>
       </c>
-      <c r="K52" s="1">
-        <v>21</v>
+      <c r="K52" s="33">
+        <v>13</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="M52">
-        <v>7</v>
+      <c r="M52" s="84">
+        <v>1</v>
       </c>
       <c r="O52">
         <f t="shared" ref="O52:O53" si="1">K52*16</f>
-        <v>336</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -5991,22 +6637,22 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J53" t="s">
         <v>194</v>
       </c>
-      <c r="K53" s="28">
-        <v>34</v>
-      </c>
-      <c r="L53" s="24" t="s">
+      <c r="K53" s="92">
+        <v>21</v>
+      </c>
+      <c r="L53" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="M53" s="24">
-        <v>8</v>
+      <c r="M53" s="94">
+        <v>1</v>
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>544</v>
+        <v>336</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -6015,10 +6661,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="10:22" x14ac:dyDescent="0.35">
-      <c r="K54" s="1">
+    <row r="54" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="K54" s="4">
         <f>SUM(K46:K53)</f>
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="L54" s="14"/>
       <c r="Q54">
@@ -6028,13 +6674,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:25" x14ac:dyDescent="0.35">
       <c r="K55" s="26" t="s">
         <v>172</v>
       </c>
       <c r="O55">
         <f>SUM(O46:O53)</f>
-        <v>2720</v>
+        <v>2304</v>
       </c>
       <c r="P55">
         <f>8*(20*8)</f>
@@ -6045,56 +6691,64 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="56" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:25" x14ac:dyDescent="0.35">
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:25" x14ac:dyDescent="0.35">
       <c r="L57" s="14"/>
     </row>
-    <row r="58" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="K58">
+        <f>SUM(K46:K50)</f>
+        <v>102</v>
+      </c>
       <c r="L58" s="14"/>
       <c r="M58" s="24"/>
       <c r="O58" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:25" x14ac:dyDescent="0.35">
       <c r="L59" s="11"/>
       <c r="O59" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:25" x14ac:dyDescent="0.35">
       <c r="L60" s="11"/>
       <c r="O60" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:25" x14ac:dyDescent="0.35">
       <c r="L61" s="11"/>
       <c r="O61" t="s">
         <v>180</v>
       </c>
       <c r="T61">
-        <v>5</v>
-      </c>
-      <c r="U61" t="s">
+        <v>8</v>
+      </c>
+      <c r="V61" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="62" spans="10:22" x14ac:dyDescent="0.35">
+      <c r="X61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="10:25" x14ac:dyDescent="0.35">
       <c r="L62" s="10"/>
       <c r="O62" t="s">
         <v>186</v>
       </c>
       <c r="T62">
-        <v>40</v>
-      </c>
-      <c r="U62" t="s">
+        <f>T61*8</f>
+        <v>64</v>
+      </c>
+      <c r="V62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="10:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="10:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L64" s="13"/>
       <c r="O64" s="1">
         <f>5*8</f>
@@ -6117,12 +6771,15 @@
         <v>40</v>
       </c>
       <c r="T64" s="1"/>
-      <c r="U64" s="25" t="s">
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="V64" s="1"/>
-    </row>
-    <row r="65" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="Y64" s="1"/>
+    </row>
+    <row r="65" spans="11:30" x14ac:dyDescent="0.35">
       <c r="K65" s="27" t="s">
         <v>171</v>
       </c>
@@ -6132,39 +6789,47 @@
       <c r="M65" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="N65" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="P65" s="3" t="s">
+      <c r="O65" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P65" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Q65" s="3" t="s">
+      <c r="Q65" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="R65" s="3" t="s">
+      <c r="R65" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="S65" s="3" t="s">
+      <c r="S65" s="4" t="s">
         <v>176</v>
       </c>
       <c r="T65" s="3"/>
-      <c r="U65" s="30" t="s">
+      <c r="U65" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="V65" s="31" t="s">
+      <c r="Y65" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="W65" s="31" t="s">
+      <c r="Z65" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="X65" s="31" t="s">
+      <c r="AA65" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="Y65" s="32" t="s">
+      <c r="AB65" s="32" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="11:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="11:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K66" s="1">
         <v>5</v>
       </c>
@@ -6173,6 +6838,9 @@
       </c>
       <c r="M66">
         <v>1</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="O66" s="1">
         <v>5</v>
@@ -6181,24 +6849,39 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="33" t="s">
+      <c r="T66" s="1">
+        <f t="shared" ref="T66:T67" si="3">SUM(O66:S66)</f>
+        <v>5</v>
+      </c>
+      <c r="U66" s="1">
+        <f>K66-T66</f>
+        <v>0</v>
+      </c>
+      <c r="V66" s="1" t="str">
+        <f>IF(T66&lt;&gt;K66,"Ajustar","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="W66" s="1"/>
+      <c r="X66" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="34"/>
-    </row>
-    <row r="67" spans="11:25" x14ac:dyDescent="0.35">
-      <c r="K67" s="28">
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="34"/>
+    </row>
+    <row r="67" spans="11:30" x14ac:dyDescent="0.35">
+      <c r="K67" s="73">
         <v>8</v>
       </c>
-      <c r="L67" s="24" t="s">
+      <c r="L67" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="M67" s="24">
+      <c r="M67" s="75">
         <v>2</v>
+      </c>
+      <c r="N67" s="95" t="s">
+        <v>285</v>
       </c>
       <c r="O67" s="1">
         <v>8</v>
@@ -6207,42 +6890,71 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="33" t="s">
+      <c r="T67" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="U67" s="1">
+        <f t="shared" ref="U67:U73" si="4">K67-T67</f>
+        <v>0</v>
+      </c>
+      <c r="V67" s="1" t="str">
+        <f t="shared" ref="V67:V73" si="5">IF(T67&lt;&gt;K67,"Ajustar","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="W67" s="1"/>
+      <c r="X67" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="34"/>
-    </row>
-    <row r="68" spans="11:25" x14ac:dyDescent="0.35">
-      <c r="K68" s="1">
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="34"/>
+    </row>
+    <row r="68" spans="11:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K68" s="76">
         <v>21</v>
       </c>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="M68">
-        <v>2</v>
-      </c>
+      <c r="M68" s="78">
+        <v>3</v>
+      </c>
+      <c r="N68" s="95"/>
       <c r="O68" s="1">
-        <v>21</v>
-      </c>
-      <c r="P68" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="P68" s="1">
+        <v>12</v>
+      </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="33" t="s">
+      <c r="T68" s="1">
+        <f>SUM(O68:S68)</f>
+        <v>21</v>
+      </c>
+      <c r="U68" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="W68" s="1"/>
+      <c r="X68" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="34"/>
-    </row>
-    <row r="69" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="Y68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="34"/>
+    </row>
+    <row r="69" spans="11:30" x14ac:dyDescent="0.35">
       <c r="K69" s="28">
         <v>55</v>
       </c>
@@ -6252,28 +6964,40 @@
       <c r="M69" s="24">
         <v>4</v>
       </c>
+      <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q69" s="1">
-        <f>55-33</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="33"/>
-      <c r="V69" s="1" t="s">
+      <c r="T69" s="1">
+        <f t="shared" ref="T69:T73" si="6">SUM(O69:S69)</f>
+        <v>55</v>
+      </c>
+      <c r="U69" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="W69" s="1"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="W69" s="1" t="s">
+      <c r="Z69" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="34"/>
-    </row>
-    <row r="70" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="34"/>
+    </row>
+    <row r="70" spans="11:30" x14ac:dyDescent="0.35">
       <c r="K70" s="1">
         <v>13</v>
       </c>
@@ -6281,165 +7005,703 @@
         <v>45</v>
       </c>
       <c r="M70">
-        <v>3</v>
-      </c>
-      <c r="O70" s="1">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
       <c r="P70" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="33" t="s">
+      <c r="T70" s="1">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="U70" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="W70" s="1"/>
+      <c r="X70" s="33"/>
+      <c r="Y70" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="34"/>
-    </row>
-    <row r="71" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="34"/>
+    </row>
+    <row r="71" spans="11:30" x14ac:dyDescent="0.35">
       <c r="K71" s="28">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L71" s="29" t="s">
         <v>173</v>
       </c>
       <c r="M71" s="24">
-        <v>6</v>
-      </c>
-      <c r="O71" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O71" s="1">
+        <v>8</v>
+      </c>
       <c r="P71" s="1"/>
-      <c r="Q71" s="1">
-        <f>K51</f>
-        <v>13</v>
-      </c>
+      <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="33"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1" t="s">
+      <c r="T71" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="U71" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="W71" s="1"/>
+      <c r="X71" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="34"/>
-    </row>
-    <row r="72" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="34"/>
+    </row>
+    <row r="72" spans="11:30" x14ac:dyDescent="0.35">
       <c r="K72" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>162</v>
       </c>
       <c r="M72">
-        <v>7</v>
-      </c>
-      <c r="O72" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O72" s="1">
+        <v>13</v>
+      </c>
       <c r="P72" s="1"/>
-      <c r="Q72" s="1">
-        <v>5</v>
-      </c>
-      <c r="R72" s="1">
-        <v>16</v>
-      </c>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="33"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1" t="s">
+      <c r="T72" s="1">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="U72" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="W72" s="1"/>
+      <c r="X72" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="X72" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y72" s="34"/>
-    </row>
-    <row r="73" spans="11:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="34"/>
+    </row>
+    <row r="73" spans="11:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K73" s="28">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L73" s="24" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="M73" s="24">
-        <v>8</v>
-      </c>
-      <c r="O73" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O73" s="1">
+        <v>21</v>
+      </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="R73" s="1">
-        <v>24</v>
-      </c>
-      <c r="S73" s="1">
-        <v>10</v>
-      </c>
-      <c r="T73" s="1"/>
-      <c r="U73" s="35"/>
-      <c r="V73" s="36"/>
-      <c r="W73" s="36"/>
-      <c r="X73" s="36" t="s">
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="U73" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="W73" s="1"/>
+      <c r="X73" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="Y73" s="37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="Y73" s="36"/>
+      <c r="Z73" s="36"/>
+      <c r="AA73" s="36"/>
+      <c r="AB73" s="37"/>
+    </row>
+    <row r="74" spans="11:30" x14ac:dyDescent="0.35">
       <c r="K74" s="4">
         <f>SUM(K66:K73)</f>
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="L74" s="14"/>
       <c r="O74" s="4">
-        <f>SUM(O66:O73)</f>
-        <v>40</v>
+        <f t="shared" ref="O74:T74" si="7">SUM(O66:O73)</f>
+        <v>64</v>
       </c>
       <c r="P74" s="4">
-        <f>SUM(P66:P73)</f>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>64</v>
       </c>
       <c r="Q74" s="4">
-        <f>SUM(Q66:Q73)</f>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="R74" s="4">
-        <f>SUM(R66:R73)</f>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="S74" s="4">
-        <f>SUM(S66:S73)</f>
-        <v>10</v>
-      </c>
-      <c r="T74" s="4"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="4">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
-    </row>
-    <row r="75" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+    </row>
+    <row r="75" spans="11:30" x14ac:dyDescent="0.35">
       <c r="K75" s="26" t="s">
         <v>172</v>
       </c>
     </row>
+    <row r="78" spans="11:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K78" s="96"/>
+      <c r="L78" s="96"/>
+      <c r="M78" s="96"/>
+      <c r="N78" s="96"/>
+    </row>
+    <row r="79" spans="11:30" x14ac:dyDescent="0.35">
+      <c r="K79" s="96"/>
+      <c r="L79" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="M79" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="N79" s="96"/>
+      <c r="AD79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="11:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K80" s="96"/>
+      <c r="L80" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="M80" s="100">
+        <v>1</v>
+      </c>
+      <c r="N80" s="96"/>
+      <c r="AD80" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="K81" s="96"/>
+      <c r="L81" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="M81" s="75">
+        <v>2</v>
+      </c>
+      <c r="N81" s="96"/>
+    </row>
+    <row r="82" spans="9:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K82" s="96"/>
+      <c r="L82" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="M82" s="78">
+        <v>3</v>
+      </c>
+      <c r="N82" s="96"/>
+      <c r="AF82" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG82" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="K83" s="96"/>
+      <c r="L83" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="M83" s="86">
+        <v>4</v>
+      </c>
+      <c r="N83" s="96"/>
+      <c r="R83" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="K84" s="96"/>
+      <c r="L84" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="M84" s="100">
+        <v>5</v>
+      </c>
+      <c r="N84" s="96"/>
+      <c r="AD84" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="85" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="K85" s="96"/>
+      <c r="L85" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="M85" s="86">
+        <v>1</v>
+      </c>
+      <c r="N85" s="96"/>
+      <c r="AD85" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="K86" s="96"/>
+      <c r="L86" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="M86" s="100">
+        <v>1</v>
+      </c>
+      <c r="N86" s="96"/>
+      <c r="R86" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="9:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K87" s="96"/>
+      <c r="L87" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="M87" s="94">
+        <v>1</v>
+      </c>
+      <c r="N87" s="96"/>
+      <c r="R87" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="K88" s="96"/>
+      <c r="L88" s="96"/>
+      <c r="M88" s="96"/>
+      <c r="N88" s="96"/>
+      <c r="AD88" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="AD89" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="I93" s="96"/>
+    </row>
+    <row r="94" spans="9:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I94" s="96"/>
+      <c r="J94" s="96"/>
+      <c r="K94" s="96"/>
+      <c r="L94" s="96"/>
+      <c r="M94" s="96"/>
+      <c r="N94" s="96"/>
+      <c r="O94" s="96"/>
+    </row>
+    <row r="95" spans="9:33" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I95" s="96"/>
+      <c r="J95" s="129" t="s">
+        <v>297</v>
+      </c>
+      <c r="K95" s="129" t="s">
+        <v>298</v>
+      </c>
+      <c r="L95" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="M95" s="114" t="s">
+        <v>174</v>
+      </c>
+      <c r="N95" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="O95" s="96"/>
+    </row>
+    <row r="96" spans="9:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I96" s="96"/>
+      <c r="J96" s="130">
+        <v>5</v>
+      </c>
+      <c r="K96" s="130">
+        <v>5</v>
+      </c>
+      <c r="L96" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="126">
+        <v>1</v>
+      </c>
+      <c r="N96" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="O96" s="96"/>
+    </row>
+    <row r="97" spans="9:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I97" s="96"/>
+      <c r="J97" s="134">
+        <v>29</v>
+      </c>
+      <c r="K97" s="134">
+        <v>25</v>
+      </c>
+      <c r="L97" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="M97" s="135">
+        <v>2</v>
+      </c>
+      <c r="N97" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="O97" s="96"/>
+    </row>
+    <row r="98" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="I98" s="96"/>
+      <c r="J98" s="131">
+        <v>8</v>
+      </c>
+      <c r="K98" s="131">
+        <v>6</v>
+      </c>
+      <c r="L98" s="127" t="s">
+        <v>173</v>
+      </c>
+      <c r="M98" s="128">
+        <v>1</v>
+      </c>
+      <c r="N98" s="137" t="s">
+        <v>136</v>
+      </c>
+      <c r="O98" s="96"/>
+    </row>
+    <row r="99" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="I99" s="96"/>
+      <c r="J99" s="130">
+        <v>13</v>
+      </c>
+      <c r="K99" s="130">
+        <v>10</v>
+      </c>
+      <c r="L99" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="M99" s="126">
+        <v>1</v>
+      </c>
+      <c r="N99" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="O99" s="96"/>
+    </row>
+    <row r="100" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="I100" s="96"/>
+      <c r="J100" s="131">
+        <v>21</v>
+      </c>
+      <c r="K100" s="131">
+        <v>18</v>
+      </c>
+      <c r="L100" s="128" t="s">
+        <v>282</v>
+      </c>
+      <c r="M100" s="128">
+        <v>1</v>
+      </c>
+      <c r="N100" s="137" t="s">
+        <v>138</v>
+      </c>
+      <c r="O100" s="96"/>
+    </row>
+    <row r="101" spans="9:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I101" s="96"/>
+      <c r="J101" s="133">
+        <f>SUM(J96:J100)</f>
+        <v>76</v>
+      </c>
+      <c r="K101" s="132">
+        <f>SUM(K96:K100)</f>
+        <v>64</v>
+      </c>
+      <c r="L101" s="117"/>
+      <c r="M101" s="118"/>
+      <c r="N101" s="119"/>
+      <c r="O101" s="96"/>
+    </row>
+    <row r="102" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="I102" s="96"/>
+      <c r="J102" s="96"/>
+      <c r="K102" s="96"/>
+      <c r="L102" s="96"/>
+      <c r="M102" s="96"/>
+      <c r="N102" s="96"/>
+      <c r="O102" s="96"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A447F868-EEBF-438E-B55C-11694AE044F9}">
+  <dimension ref="A2:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="47.36328125" customWidth="1"/>
+    <col min="3" max="3" width="56.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+    </row>
+    <row r="3" spans="1:4" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="96"/>
+      <c r="B3" s="123" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="124"/>
+      <c r="D3" s="96"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="96"/>
+      <c r="B4" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="96"/>
+    </row>
+    <row r="5" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="96"/>
+      <c r="B5" s="108" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="96"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="96"/>
+      <c r="B6" s="110" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="96"/>
+    </row>
+    <row r="7" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="96"/>
+      <c r="B7" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="96"/>
+    </row>
+    <row r="8" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="96"/>
+      <c r="B8" s="110" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="96"/>
+    </row>
+    <row r="9" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="96"/>
+      <c r="B9" s="108" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="96"/>
+    </row>
+    <row r="10" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="96"/>
+      <c r="B10" s="110" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="96"/>
+    </row>
+    <row r="11" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="96"/>
+      <c r="B11" s="108" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="96"/>
+    </row>
+    <row r="12" spans="1:4" ht="27.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="96"/>
+      <c r="B12" s="112" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="113" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="96"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C92B289-1327-43A2-9FC5-B021202794DA}">
   <dimension ref="A3:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6974,7 +8236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5052A683-FA1C-4DA9-9E26-20B7BD0EC11B}">
   <dimension ref="B3:E19"/>
   <sheetViews>
